--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13099977.46</v>
+        <v>25652510.76</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>485184.35</v>
+        <v>557663.28</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1274162.56</v>
+        <v>1277644.43</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>389819.5</v>
+        <v>389618.58</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817420.35</v>
+        <v>818056.71</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>783524.2</v>
+        <v>812395.33</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1426526.04</v>
+        <v>1427221.2</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>692651.42</v>
+        <v>692928.48</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>796033.75</v>
+        <v>798851.29</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>702233.34</v>
+        <v>688552.34</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>477280.69</v>
+        <v>447295.72</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>643640.25</v>
+        <v>644115.34</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>499236.78</v>
+        <v>499074.49</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>478832.03</v>
+        <v>479418.37</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>351407.18</v>
+        <v>351417.79</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>597349.88</v>
+        <v>732751.67</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>635325.02</v>
+        <v>730431.01</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>360721.93</v>
+        <v>361515.15</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>712172.26</v>
+        <v>712333.59</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>65765.71000000001</v>
+        <v>104217.96</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>157768.26</v>
+        <v>178650.87</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>229057.54</v>
+        <v>223024.19</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>227233.09</v>
+        <v>197103.56</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>249443.54</v>
+        <v>400112.01</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>151779.15</v>
+        <v>151739.83</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55265.9</v>
+        <v>55289.85</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>160041.49</v>
+        <v>160107.1</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10312.01</v>
+        <v>2399.75</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,197 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>154973.59</v>
+        <v>155076.9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>338555.2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>155486.92</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2999.63</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6030.93</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>864794.3199999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>165476.87</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>69048.17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2058878.11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>33653.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>646567.34</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>226781.02</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>80564.41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2193.46</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2797.52</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2064292.4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>23434.87</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2399.75</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1204636.15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4212576.68</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,485 +439,634 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25652510.76</v>
+        <v>400112.01</v>
+      </c>
+      <c r="C2" t="n">
+        <v>415270.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>557663.28</v>
+        <v>1277644.43</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1270798.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1277644.43</v>
+        <v>151739.83</v>
+      </c>
+      <c r="C4" t="n">
+        <v>166695.94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>389618.58</v>
+        <v>223024.19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>276849.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>818056.71</v>
+        <v>389618.58</v>
+      </c>
+      <c r="C6" t="n">
+        <v>389935.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>812395.33</v>
+        <v>818056.71</v>
+      </c>
+      <c r="C7" t="n">
+        <v>877114.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1427221.2</v>
+        <v>33653.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33664.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>692928.48</v>
+        <v>646567.34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>646447.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>798851.29</v>
+        <v>55289.85</v>
+      </c>
+      <c r="C10" t="n">
+        <v>55226.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>688552.34</v>
+        <v>2797.52</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2803.67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>447295.72</v>
+        <v>2193.46</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2207.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>644115.34</v>
+        <v>812395.33</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1081989.66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>499074.49</v>
+        <v>338555.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>393366.13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>479418.37</v>
+        <v>2064292.4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2055285.96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>351417.79</v>
+        <v>1427221.2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1427373.73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>732751.67</v>
+        <v>692928.48</v>
+      </c>
+      <c r="C17" t="n">
+        <v>692847.28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>730431.01</v>
+        <v>6030.93</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5745.45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>361515.15</v>
+        <v>864794.3199999999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>863971.53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>712333.59</v>
+        <v>155486.92</v>
+      </c>
+      <c r="C20" t="n">
+        <v>155358.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104217.96</v>
+        <v>226781.02</v>
+      </c>
+      <c r="C21" t="n">
+        <v>227813.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>178650.87</v>
+        <v>2999.63</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3005.23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223024.19</v>
+        <v>732751.67</v>
+      </c>
+      <c r="C23" t="n">
+        <v>801516.77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>197103.56</v>
+        <v>730431.01</v>
+      </c>
+      <c r="C24" t="n">
+        <v>789073.59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>400112.01</v>
+        <v>798851.29</v>
+      </c>
+      <c r="C25" t="n">
+        <v>951415.41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>151739.83</v>
+        <v>688552.34</v>
+      </c>
+      <c r="C26" t="n">
+        <v>728763.61</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55289.85</v>
+        <v>160107.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>160124.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>160107.1</v>
+        <v>23434.87</v>
+      </c>
+      <c r="C28" t="n">
+        <v>23428.99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2399.75</v>
+        <v>447295.72</v>
+      </c>
+      <c r="C29" t="n">
+        <v>497222.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>155076.9</v>
+        <v>644115.34</v>
+      </c>
+      <c r="C30" t="n">
+        <v>684012.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>338555.2</v>
+        <v>178650.87</v>
+      </c>
+      <c r="C31" t="n">
+        <v>178648.66</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>155486.92</v>
+        <v>2399.75</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3293.51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2999.63</v>
+        <v>2399.75</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3293.51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6030.93</v>
+        <v>165476.87</v>
+      </c>
+      <c r="C34" t="n">
+        <v>176968.13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>864794.3199999999</v>
+        <v>69048.17</v>
+      </c>
+      <c r="C35" t="n">
+        <v>69023.66</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165476.87</v>
+        <v>155076.9</v>
+      </c>
+      <c r="C36" t="n">
+        <v>154990.57</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69048.17</v>
+        <v>361515.15</v>
+      </c>
+      <c r="C37" t="n">
+        <v>384522.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2058878.11</v>
+        <v>712333.59</v>
+      </c>
+      <c r="C38" t="n">
+        <v>712301.29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>33653.5</v>
+        <v>197103.56</v>
+      </c>
+      <c r="C39" t="n">
+        <v>219146.69</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>646567.34</v>
+        <v>499074.49</v>
+      </c>
+      <c r="C40" t="n">
+        <v>499412.72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>226781.02</v>
+        <v>351417.79</v>
+      </c>
+      <c r="C41" t="n">
+        <v>351385.62</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>80564.41</v>
+        <v>479418.37</v>
+      </c>
+      <c r="C42" t="n">
+        <v>575200.85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2193.46</v>
+        <v>1204636.15</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1203933.93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2797.52</v>
+        <v>4212576.68</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5196347.47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2064292.4</v>
+        <v>2058878.11</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2059650.51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>23434.87</v>
+        <v>104217.96</v>
+      </c>
+      <c r="C46" t="n">
+        <v>142614.86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2399.75</v>
+        <v>80564.41</v>
+      </c>
+      <c r="C47" t="n">
+        <v>80403.62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1204636.15</v>
+        <v>557663.28</v>
+      </c>
+      <c r="C48" t="n">
+        <v>601966.65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4212576.68</v>
+        <v>25652510.76</v>
+      </c>
+      <c r="C49" t="n">
+        <v>27690465.81</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,660 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28156822.17</v>
+        <v>415270.78</v>
+      </c>
+      <c r="C2" t="n">
+        <v>481772.99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>586600.46</v>
+        <v>1270798.49</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1302259.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415270.78</v>
+        <v>166695.94</v>
+      </c>
+      <c r="C4" t="n">
+        <v>179770.69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1270798.49</v>
+        <v>276849.27</v>
+      </c>
+      <c r="C5" t="n">
+        <v>276800.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166695.94</v>
+        <v>389935.77</v>
+      </c>
+      <c r="C6" t="n">
+        <v>504610.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>276849.27</v>
+        <v>150.71</v>
+      </c>
+      <c r="C7" t="n">
+        <v>143.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>389935.77</v>
+        <v>877114.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>877123.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.71</v>
+        <v>458758.84</v>
+      </c>
+      <c r="C9" t="n">
+        <v>491182.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>877114.3</v>
+        <v>33664.45</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25692.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>458758.84</v>
+        <v>646447.65</v>
+      </c>
+      <c r="C11" t="n">
+        <v>647123.4300000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33664.45</v>
+        <v>55226.19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>55246.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>646447.65</v>
+        <v>2803.67</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2800.76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55226.19</v>
+        <v>2207.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2173.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2803.67</v>
+        <v>1081989.66</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1250982.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2207.1</v>
+        <v>393366.13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>383510.49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1081989.66</v>
+        <v>2055285.96</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2056167.82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>393366.13</v>
+        <v>10740.32</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10746.59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2055285.96</v>
+        <v>1427373.73</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1426466.29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10740.32</v>
+        <v>692847.28</v>
+      </c>
+      <c r="C20" t="n">
+        <v>692451.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1427373.73</v>
+        <v>155358.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>155336.49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>692847.28</v>
+        <v>3005.23</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2999.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>155358.8</v>
+        <v>5745.45</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5744.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3005.23</v>
+        <v>863971.53</v>
+      </c>
+      <c r="C24" t="n">
+        <v>863645.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5745.45</v>
+        <v>227813.11</v>
+      </c>
+      <c r="C25" t="n">
+        <v>227005.44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>863971.53</v>
+        <v>801516.77</v>
+      </c>
+      <c r="C26" t="n">
+        <v>944052.89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>227813.11</v>
+        <v>789073.59</v>
+      </c>
+      <c r="C27" t="n">
+        <v>926349.28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801516.77</v>
+        <v>951415.41</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1034647.54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>789073.59</v>
+        <v>728763.61</v>
+      </c>
+      <c r="C29" t="n">
+        <v>774762.45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>951415.41</v>
+        <v>160124.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>168095.66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728763.61</v>
+        <v>23428.99</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23438.39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>160124.3</v>
+        <v>497222.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>527029.26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23428.99</v>
+        <v>684012.05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>818839.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>497222.5</v>
+        <v>178648.66</v>
+      </c>
+      <c r="C34" t="n">
+        <v>186971.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>684012.05</v>
+        <v>3293.51</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3306.52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>178648.66</v>
+        <v>176968.13</v>
+      </c>
+      <c r="C36" t="n">
+        <v>179599.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3293.51</v>
+        <v>69023.66</v>
+      </c>
+      <c r="C37" t="n">
+        <v>68983.42999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>176968.13</v>
+        <v>154990.57</v>
+      </c>
+      <c r="C38" t="n">
+        <v>155086.04</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>69023.66</v>
+        <v>384522.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>384578.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>154990.57</v>
+        <v>712301.29</v>
+      </c>
+      <c r="C40" t="n">
+        <v>712129.48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>384522.5</v>
+        <v>219146.69</v>
+      </c>
+      <c r="C41" t="n">
+        <v>229081.57</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>712301.29</v>
+        <v>499412.72</v>
+      </c>
+      <c r="C42" t="n">
+        <v>499169.51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>219146.69</v>
+        <v>351385.62</v>
+      </c>
+      <c r="C43" t="n">
+        <v>351397.41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>499412.72</v>
+        <v>575200.85</v>
+      </c>
+      <c r="C44" t="n">
+        <v>648261.55</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>351385.62</v>
+        <v>1203933.93</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1204311.98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>575200.85</v>
+        <v>5196347.47</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6129297.29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1203933.93</v>
+        <v>2059650.51</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2060160.46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5196347.47</v>
+        <v>142614.86</v>
+      </c>
+      <c r="C48" t="n">
+        <v>175036.86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2059650.51</v>
+        <v>80403.62</v>
+      </c>
+      <c r="C49" t="n">
+        <v>80466.45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>142614.86</v>
+        <v>586600.46</v>
+      </c>
+      <c r="C50" t="n">
+        <v>629308.51</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>80403.62</v>
+        <v>28156822.17</v>
+      </c>
+      <c r="C51" t="n">
+        <v>30206808.27</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -675,9 +675,7 @@
       <c r="B19" t="n">
         <v>1427373.73</v>
       </c>
-      <c r="C19" t="n">
-        <v>1426466.29</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -688,9 +686,7 @@
       <c r="B20" t="n">
         <v>692847.28</v>
       </c>
-      <c r="C20" t="n">
-        <v>692451.36</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -701,9 +697,7 @@
       <c r="B21" t="n">
         <v>155358.8</v>
       </c>
-      <c r="C21" t="n">
-        <v>155336.49</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -714,9 +708,7 @@
       <c r="B22" t="n">
         <v>3005.23</v>
       </c>
-      <c r="C22" t="n">
-        <v>2999.05</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -727,9 +719,7 @@
       <c r="B23" t="n">
         <v>5745.45</v>
       </c>
-      <c r="C23" t="n">
-        <v>5744.1</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -740,9 +730,7 @@
       <c r="B24" t="n">
         <v>863971.53</v>
       </c>
-      <c r="C24" t="n">
-        <v>863645.04</v>
-      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -753,9 +741,7 @@
       <c r="B25" t="n">
         <v>227813.11</v>
       </c>
-      <c r="C25" t="n">
-        <v>227005.44</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -766,9 +752,7 @@
       <c r="B26" t="n">
         <v>801516.77</v>
       </c>
-      <c r="C26" t="n">
-        <v>944052.89</v>
-      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -779,9 +763,7 @@
       <c r="B27" t="n">
         <v>789073.59</v>
       </c>
-      <c r="C27" t="n">
-        <v>926349.28</v>
-      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -792,9 +774,7 @@
       <c r="B28" t="n">
         <v>951415.41</v>
       </c>
-      <c r="C28" t="n">
-        <v>1034647.54</v>
-      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -935,9 +915,7 @@
       <c r="B39" t="n">
         <v>384522.5</v>
       </c>
-      <c r="C39" t="n">
-        <v>384578.9</v>
-      </c>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1079,7 +1057,7 @@
         <v>586600.46</v>
       </c>
       <c r="C50" t="n">
-        <v>629308.51</v>
+        <v>636311.67</v>
       </c>
     </row>
     <row r="51">
@@ -1092,7 +1070,7 @@
         <v>28156822.17</v>
       </c>
       <c r="C51" t="n">
-        <v>30206808.27</v>
+        <v>23543531.89</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>415270.78</v>
+      </c>
+      <c r="C2" t="n">
+        <v>481772.99</v>
+      </c>
+      <c r="D2" t="n">
+        <v>534772.59</v>
+      </c>
+      <c r="E2" t="n">
+        <v>534392.9300000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>554771.3199999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>555059.64</v>
+      </c>
+      <c r="H2" t="n">
+        <v>598294.64</v>
+      </c>
+      <c r="I2" t="n">
+        <v>498785.52</v>
+      </c>
+      <c r="J2" t="n">
+        <v>492823.95</v>
+      </c>
+      <c r="K2" t="n">
+        <v>493073.47</v>
+      </c>
+      <c r="L2" t="n">
+        <v>492751.08</v>
+      </c>
+      <c r="M2" t="n">
         <v>493054.75</v>
-      </c>
-      <c r="C2" t="n">
-        <v>514446.65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>514824.39</v>
-      </c>
-      <c r="E2" t="n">
-        <v>514332.38</v>
-      </c>
-      <c r="F2" t="n">
-        <v>542811.26</v>
-      </c>
-      <c r="G2" t="n">
-        <v>551783.9</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1270798.49</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1302259.16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1320798.86</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1368437.02</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1315661.32</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1351217.02</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1286365.41</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1286174.38</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1315635.81</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1315338.7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1315907.76</v>
+      </c>
+      <c r="M3" t="n">
         <v>1364663.64</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1336801.03</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1338147.25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1314767.74</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1314385.77</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1372409.78</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>166695.94</v>
+      </c>
+      <c r="C4" t="n">
+        <v>179770.69</v>
+      </c>
+      <c r="D4" t="n">
+        <v>188773.75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>188670.21</v>
+      </c>
+      <c r="F4" t="n">
+        <v>209698.91</v>
+      </c>
+      <c r="G4" t="n">
+        <v>210333.15</v>
+      </c>
+      <c r="H4" t="n">
+        <v>209713.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>209719.13</v>
+      </c>
+      <c r="J4" t="n">
+        <v>210487.41</v>
+      </c>
+      <c r="K4" t="n">
+        <v>209661.25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>197183.25</v>
+      </c>
+      <c r="M4" t="n">
         <v>197162.54</v>
-      </c>
-      <c r="C4" t="n">
-        <v>197203.31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>196874.96</v>
-      </c>
-      <c r="E4" t="n">
-        <v>197241.87</v>
-      </c>
-      <c r="F4" t="n">
-        <v>197192.17</v>
-      </c>
-      <c r="G4" t="n">
-        <v>197171.97</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>276849.27</v>
+      </c>
+      <c r="C5" t="n">
+        <v>276800.16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>280918.85</v>
+      </c>
+      <c r="E5" t="n">
+        <v>280929.31</v>
+      </c>
+      <c r="F5" t="n">
+        <v>280865.72</v>
+      </c>
+      <c r="G5" t="n">
+        <v>280925.87</v>
+      </c>
+      <c r="H5" t="n">
+        <v>281013.37</v>
+      </c>
+      <c r="I5" t="n">
+        <v>280875.16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>280999.49</v>
+      </c>
+      <c r="K5" t="n">
+        <v>284573.27</v>
+      </c>
+      <c r="L5" t="n">
+        <v>284516.09</v>
+      </c>
+      <c r="M5" t="n">
         <v>284535.66</v>
-      </c>
-      <c r="C5" t="n">
-        <v>284684.22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>284748.94</v>
-      </c>
-      <c r="E5" t="n">
-        <v>284551.4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>313262.77</v>
-      </c>
-      <c r="G5" t="n">
-        <v>329301.92</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>389935.77</v>
+      </c>
+      <c r="C6" t="n">
+        <v>504610.36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>504274.05</v>
+      </c>
+      <c r="E6" t="n">
+        <v>583517.29</v>
+      </c>
+      <c r="F6" t="n">
+        <v>684006.17</v>
+      </c>
+      <c r="G6" t="n">
+        <v>683986.86</v>
+      </c>
+      <c r="H6" t="n">
+        <v>683987.86</v>
+      </c>
+      <c r="I6" t="n">
+        <v>684054.29</v>
+      </c>
+      <c r="J6" t="n">
+        <v>768885.1899999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>809502.79</v>
+      </c>
+      <c r="L6" t="n">
+        <v>809560.48</v>
+      </c>
+      <c r="M6" t="n">
         <v>809425.03</v>
-      </c>
-      <c r="C6" t="n">
-        <v>809177.41</v>
-      </c>
-      <c r="D6" t="n">
-        <v>810114.3100000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>809482.87</v>
-      </c>
-      <c r="F6" t="n">
-        <v>809450.88</v>
-      </c>
-      <c r="G6" t="n">
-        <v>809601.42</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>150.71</v>
+      </c>
+      <c r="C7" t="n">
+        <v>143.82</v>
+      </c>
+      <c r="D7" t="n">
+        <v>140.47</v>
+      </c>
+      <c r="E7" t="n">
+        <v>143.13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>140.11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>141.16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>141.33</v>
+      </c>
+      <c r="I7" t="n">
+        <v>138.39</v>
+      </c>
+      <c r="J7" t="n">
+        <v>137.09</v>
+      </c>
+      <c r="K7" t="n">
+        <v>129.83</v>
+      </c>
+      <c r="L7" t="n">
+        <v>130.35</v>
+      </c>
+      <c r="M7" t="n">
         <v>129.43</v>
-      </c>
-      <c r="C7" t="n">
-        <v>128.55</v>
-      </c>
-      <c r="D7" t="n">
-        <v>126.22</v>
-      </c>
-      <c r="E7" t="n">
-        <v>128.07</v>
-      </c>
-      <c r="F7" t="n">
-        <v>112.52</v>
-      </c>
-      <c r="G7" t="n">
-        <v>113.31</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>877114.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>877123.52</v>
+      </c>
+      <c r="D8" t="n">
+        <v>936853.51</v>
+      </c>
+      <c r="E8" t="n">
+        <v>936856.3100000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1153946.72</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1154166.81</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1154021.97</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1154365.53</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1154570.53</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1153816.88</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1154391.21</v>
+      </c>
+      <c r="M8" t="n">
         <v>1154125.93</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1153841.32</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1154555.72</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1101531.28</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1102151.72</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1101561.26</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>458758.84</v>
+      </c>
+      <c r="C9" t="n">
+        <v>491182.96</v>
+      </c>
+      <c r="D9" t="n">
+        <v>491368.15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>491181.85</v>
+      </c>
+      <c r="F9" t="n">
+        <v>491379.23</v>
+      </c>
+      <c r="G9" t="n">
+        <v>512483.61</v>
+      </c>
+      <c r="H9" t="n">
+        <v>512407.28</v>
+      </c>
+      <c r="I9" t="n">
+        <v>512540.66</v>
+      </c>
+      <c r="J9" t="n">
+        <v>512652.89</v>
+      </c>
+      <c r="K9" t="n">
+        <v>512746.36</v>
+      </c>
+      <c r="L9" t="n">
+        <v>512361.77</v>
+      </c>
+      <c r="M9" t="n">
         <v>512469.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>512585.77</v>
-      </c>
-      <c r="D9" t="n">
-        <v>512784.38</v>
-      </c>
-      <c r="E9" t="n">
-        <v>512448.19</v>
-      </c>
-      <c r="F9" t="n">
-        <v>512496.17</v>
-      </c>
-      <c r="G9" t="n">
-        <v>567702.09</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +846,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>33664.45</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25692.65</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25715.49</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25708.89</v>
+      </c>
+      <c r="F10" t="n">
+        <v>25740.87</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30016.74</v>
+      </c>
+      <c r="H10" t="n">
+        <v>29998.43</v>
+      </c>
+      <c r="I10" t="n">
+        <v>30024.31</v>
+      </c>
+      <c r="J10" t="n">
+        <v>30004.86</v>
+      </c>
+      <c r="K10" t="n">
+        <v>19067.43</v>
+      </c>
+      <c r="L10" t="n">
+        <v>19046.71</v>
+      </c>
+      <c r="M10" t="n">
         <v>19086.14</v>
-      </c>
-      <c r="C10" t="n">
-        <v>19062.81</v>
-      </c>
-      <c r="D10" t="n">
-        <v>19073.9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>19055.61</v>
-      </c>
-      <c r="F10" t="n">
-        <v>19046.14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>19056.2</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +889,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>646447.65</v>
+      </c>
+      <c r="C11" t="n">
+        <v>647123.4300000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>644697.99</v>
+      </c>
+      <c r="E11" t="n">
+        <v>646053.6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>645621.64</v>
+      </c>
+      <c r="G11" t="n">
+        <v>644319.64</v>
+      </c>
+      <c r="H11" t="n">
+        <v>644550.46</v>
+      </c>
+      <c r="I11" t="n">
+        <v>646008.86</v>
+      </c>
+      <c r="J11" t="n">
+        <v>644278.58</v>
+      </c>
+      <c r="K11" t="n">
+        <v>646467.65</v>
+      </c>
+      <c r="L11" t="n">
+        <v>644763.96</v>
+      </c>
+      <c r="M11" t="n">
         <v>646291.71</v>
-      </c>
-      <c r="C11" t="n">
-        <v>645795.23</v>
-      </c>
-      <c r="D11" t="n">
-        <v>646614.45</v>
-      </c>
-      <c r="E11" t="n">
-        <v>645657.22</v>
-      </c>
-      <c r="F11" t="n">
-        <v>649693.3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>647855.33</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +932,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>55226.19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>55246.44</v>
+      </c>
+      <c r="D12" t="n">
+        <v>55246.81</v>
+      </c>
+      <c r="E12" t="n">
+        <v>55231.31</v>
+      </c>
+      <c r="F12" t="n">
+        <v>55135.74</v>
+      </c>
+      <c r="G12" t="n">
+        <v>55146.97</v>
+      </c>
+      <c r="H12" t="n">
+        <v>55121.44</v>
+      </c>
+      <c r="I12" t="n">
+        <v>55134.44</v>
+      </c>
+      <c r="J12" t="n">
+        <v>55082.43</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6520.32</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6519.47</v>
+      </c>
+      <c r="M12" t="n">
         <v>6520.16</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6519.57</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6523.33</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6521.26</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6518.37</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6518.46</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +975,40 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>2803.67</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2800.76</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2799.33</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2801.46</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2802.67</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2798.63</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2797.08</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2799.52</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2799.12</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2797.83</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2801.98</v>
+      </c>
+      <c r="M13" t="n">
         <v>2797.6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2799.32</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2801.34</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2796.71</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2802.77</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2796.39</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1018,40 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>2207.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2173.2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2201.31</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2177.04</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2199.22</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1872.35</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1879.15</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1868.01</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1852.22</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1851.88</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1850.06</v>
+      </c>
+      <c r="M14" t="n">
         <v>1840.43</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1836.52</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1867.17</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1862.92</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1856.59</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1835.98</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +1061,40 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>1081989.66</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1250982.01</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1195117.45</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1034835.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1034918.55</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1055490.68</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1055305.29</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1055035.26</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1035322.64</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1049061.32</v>
+      </c>
+      <c r="L15" t="n">
+        <v>993229.25</v>
+      </c>
+      <c r="M15" t="n">
         <v>969700.65</v>
-      </c>
-      <c r="C15" t="n">
-        <v>991468.46</v>
-      </c>
-      <c r="D15" t="n">
-        <v>963767.39</v>
-      </c>
-      <c r="E15" t="n">
-        <v>995656.33</v>
-      </c>
-      <c r="F15" t="n">
-        <v>899614.0600000001</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1011430.72</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +1104,40 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>393366.13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>383510.49</v>
+      </c>
+      <c r="D16" t="n">
+        <v>381004.75</v>
+      </c>
+      <c r="E16" t="n">
+        <v>380021.12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>384076.32</v>
+      </c>
+      <c r="G16" t="n">
+        <v>354833.99</v>
+      </c>
+      <c r="H16" t="n">
+        <v>255925.43</v>
+      </c>
+      <c r="I16" t="n">
+        <v>255761.45</v>
+      </c>
+      <c r="J16" t="n">
+        <v>325702.44</v>
+      </c>
+      <c r="K16" t="n">
+        <v>325801.88</v>
+      </c>
+      <c r="L16" t="n">
+        <v>325824.66</v>
+      </c>
+      <c r="M16" t="n">
         <v>325675.87</v>
-      </c>
-      <c r="C16" t="n">
-        <v>325717.6</v>
-      </c>
-      <c r="D16" t="n">
-        <v>326169.69</v>
-      </c>
-      <c r="E16" t="n">
-        <v>325709.06</v>
-      </c>
-      <c r="F16" t="n">
-        <v>325976.07</v>
-      </c>
-      <c r="G16" t="n">
-        <v>325798.98</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +1147,40 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>2055285.96</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2056167.82</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2056812.2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2040548.37</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2041516.86</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2030328.85</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2025526.24</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2017341.48</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1995890.85</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1981146.37</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1975827.67</v>
+      </c>
+      <c r="M17" t="n">
         <v>1960776.46</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1952606.84</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1934806.39</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1920977.9</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1921060.92</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1919459.4</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +1190,40 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>10740.32</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10746.59</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10740.54</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10741.39</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10748.06</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10741.57</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10751.18</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10750.51</v>
+      </c>
+      <c r="J18" t="n">
+        <v>10749.73</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10125.26</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10126.61</v>
+      </c>
+      <c r="M18" t="n">
         <v>10133.48</v>
-      </c>
-      <c r="C18" t="n">
-        <v>10132.74</v>
-      </c>
-      <c r="D18" t="n">
-        <v>10142.58</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10126.76</v>
-      </c>
-      <c r="F18" t="n">
-        <v>10126.1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10132.62</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +1233,38 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>1427373.73</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>1510606.82</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1510114.06</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1510957.69</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1510698.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1510125.75</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1616599.61</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1779330.84</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1779507.15</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1780281.3</v>
+      </c>
+      <c r="M19" t="n">
         <v>1754612.74</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1754241.52</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1755868.48</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1754247.7</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1799144.63</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1798844.05</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +1274,38 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>692847.28</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>692794.71</v>
+      </c>
+      <c r="E20" t="n">
+        <v>692701.0600000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>692388.88</v>
+      </c>
+      <c r="G20" t="n">
+        <v>692798.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>692612.27</v>
+      </c>
+      <c r="I20" t="n">
+        <v>692804.62</v>
+      </c>
+      <c r="J20" t="n">
+        <v>778028.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>778204.52</v>
+      </c>
+      <c r="L20" t="n">
+        <v>778296.04</v>
+      </c>
+      <c r="M20" t="n">
         <v>778123.65</v>
-      </c>
-      <c r="C20" t="n">
-        <v>778397.03</v>
-      </c>
-      <c r="D20" t="n">
-        <v>778920.97</v>
-      </c>
-      <c r="E20" t="n">
-        <v>778040.03</v>
-      </c>
-      <c r="F20" t="n">
-        <v>777941.75</v>
-      </c>
-      <c r="G20" t="n">
-        <v>777901.04</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +1315,38 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>155358.8</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>155288.03</v>
+      </c>
+      <c r="E21" t="n">
+        <v>155412.49</v>
+      </c>
+      <c r="F21" t="n">
+        <v>155435.49</v>
+      </c>
+      <c r="G21" t="n">
+        <v>155429.95</v>
+      </c>
+      <c r="H21" t="n">
+        <v>155294.59</v>
+      </c>
+      <c r="I21" t="n">
+        <v>155475.68</v>
+      </c>
+      <c r="J21" t="n">
+        <v>155420.62</v>
+      </c>
+      <c r="K21" t="n">
+        <v>155356.09</v>
+      </c>
+      <c r="L21" t="n">
+        <v>155306.6</v>
+      </c>
+      <c r="M21" t="n">
         <v>155385.45</v>
-      </c>
-      <c r="C21" t="n">
-        <v>155299.89</v>
-      </c>
-      <c r="D21" t="n">
-        <v>155416.69</v>
-      </c>
-      <c r="E21" t="n">
-        <v>155462.3</v>
-      </c>
-      <c r="F21" t="n">
-        <v>155472.27</v>
-      </c>
-      <c r="G21" t="n">
-        <v>155390.32</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +1356,38 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>3005.23</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>2998.58</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2996.08</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2994.53</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2994.68</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2998.51</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3005.01</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2995.72</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2995.73</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2998.97</v>
+      </c>
+      <c r="M22" t="n">
         <v>3001.98</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2999.67</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2997.96</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3001.82</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3001.34</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3003.03</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +1397,38 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>5745.45</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>5737.86</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5744.73</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5741.59</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5739.08</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5731.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5743.43</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5737.92</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5742.88</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5743.23</v>
+      </c>
+      <c r="M23" t="n">
         <v>4581.56</v>
-      </c>
-      <c r="C23" t="n">
-        <v>4579.54</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4571.03</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4572.42</v>
-      </c>
-      <c r="F23" t="n">
-        <v>4574.86</v>
-      </c>
-      <c r="G23" t="n">
-        <v>4577.54</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1438,38 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>863971.53</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>853327.37</v>
+      </c>
+      <c r="E24" t="n">
+        <v>837845.29</v>
+      </c>
+      <c r="F24" t="n">
+        <v>838210.74</v>
+      </c>
+      <c r="G24" t="n">
+        <v>837192.28</v>
+      </c>
+      <c r="H24" t="n">
+        <v>837716.9300000001</v>
+      </c>
+      <c r="I24" t="n">
+        <v>837816.04</v>
+      </c>
+      <c r="J24" t="n">
+        <v>837537.74</v>
+      </c>
+      <c r="K24" t="n">
+        <v>837954.15</v>
+      </c>
+      <c r="L24" t="n">
+        <v>837923.12</v>
+      </c>
+      <c r="M24" t="n">
         <v>837965.6899999999</v>
-      </c>
-      <c r="C24" t="n">
-        <v>837653.76</v>
-      </c>
-      <c r="D24" t="n">
-        <v>838354.05</v>
-      </c>
-      <c r="E24" t="n">
-        <v>837208.55</v>
-      </c>
-      <c r="F24" t="n">
-        <v>837374.9399999999</v>
-      </c>
-      <c r="G24" t="n">
-        <v>837143.04</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1479,38 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>227813.11</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>227548.67</v>
+      </c>
+      <c r="E25" t="n">
+        <v>227772.94</v>
+      </c>
+      <c r="F25" t="n">
+        <v>227740.08</v>
+      </c>
+      <c r="G25" t="n">
+        <v>227710.35</v>
+      </c>
+      <c r="H25" t="n">
+        <v>227006.48</v>
+      </c>
+      <c r="I25" t="n">
+        <v>227050.48</v>
+      </c>
+      <c r="J25" t="n">
+        <v>227421.55</v>
+      </c>
+      <c r="K25" t="n">
+        <v>226963.87</v>
+      </c>
+      <c r="L25" t="n">
+        <v>227677.43</v>
+      </c>
+      <c r="M25" t="n">
         <v>226963.55</v>
-      </c>
-      <c r="C25" t="n">
-        <v>226887.99</v>
-      </c>
-      <c r="D25" t="n">
-        <v>227945.66</v>
-      </c>
-      <c r="E25" t="n">
-        <v>247489.46</v>
-      </c>
-      <c r="F25" t="n">
-        <v>246895.32</v>
-      </c>
-      <c r="G25" t="n">
-        <v>247665.8</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1520,38 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>801516.77</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>1090209.39</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1208252.81</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1245477.76</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1174434.68</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1099957.94</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1058519.98</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1065582.86</v>
+      </c>
+      <c r="K26" t="n">
+        <v>978408.25</v>
+      </c>
+      <c r="L26" t="n">
+        <v>969527.35</v>
+      </c>
+      <c r="M26" t="n">
         <v>969787.13</v>
-      </c>
-      <c r="C26" t="n">
-        <v>969174.41</v>
-      </c>
-      <c r="D26" t="n">
-        <v>980801.9300000001</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1003008.53</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1021076.42</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1013768.86</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1561,38 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>789073.59</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>1114953.13</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1145836.93</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1146235.66</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1062625.6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1001370.12</v>
+      </c>
+      <c r="I27" t="n">
+        <v>989175.61</v>
+      </c>
+      <c r="J27" t="n">
+        <v>982393.74</v>
+      </c>
+      <c r="K27" t="n">
+        <v>946198.13</v>
+      </c>
+      <c r="L27" t="n">
+        <v>918657.84</v>
+      </c>
+      <c r="M27" t="n">
         <v>918818.8100000001</v>
-      </c>
-      <c r="C27" t="n">
-        <v>910098.9</v>
-      </c>
-      <c r="D27" t="n">
-        <v>910682.58</v>
-      </c>
-      <c r="E27" t="n">
-        <v>947052.85</v>
-      </c>
-      <c r="F27" t="n">
-        <v>955471.95</v>
-      </c>
-      <c r="G27" t="n">
-        <v>947728.9399999999</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1602,38 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>951415.41</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>1040614.86</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1226647.53</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1219736.24</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1220085.82</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1270028.73</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1257984.57</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1219792.25</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1272256.67</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1159004.88</v>
+      </c>
+      <c r="M28" t="n">
         <v>1123856.16</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1124041.85</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1124665.3</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1137002.59</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1217987.4</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1247537.12</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1643,40 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>728763.61</v>
+      </c>
+      <c r="C29" t="n">
+        <v>774762.45</v>
+      </c>
+      <c r="D29" t="n">
+        <v>777410.3100000001</v>
+      </c>
+      <c r="E29" t="n">
+        <v>817109.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>822265.92</v>
+      </c>
+      <c r="G29" t="n">
+        <v>856853.84</v>
+      </c>
+      <c r="H29" t="n">
+        <v>882244</v>
+      </c>
+      <c r="I29" t="n">
+        <v>882446.1899999999</v>
+      </c>
+      <c r="J29" t="n">
+        <v>857422.48</v>
+      </c>
+      <c r="K29" t="n">
+        <v>957599.23</v>
+      </c>
+      <c r="L29" t="n">
+        <v>917420.34</v>
+      </c>
+      <c r="M29" t="n">
         <v>900738.4</v>
-      </c>
-      <c r="C29" t="n">
-        <v>887669.27</v>
-      </c>
-      <c r="D29" t="n">
-        <v>888106.8199999999</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1060462.31</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1073592.56</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1014731.91</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1686,40 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>160124.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>168095.66</v>
+      </c>
+      <c r="D30" t="n">
+        <v>158086.43</v>
+      </c>
+      <c r="E30" t="n">
+        <v>163095.87</v>
+      </c>
+      <c r="F30" t="n">
+        <v>163125.28</v>
+      </c>
+      <c r="G30" t="n">
+        <v>163093.6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>163141.56</v>
+      </c>
+      <c r="I30" t="n">
+        <v>163087.2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>163103.05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>163084.4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>158897.83</v>
+      </c>
+      <c r="M30" t="n">
         <v>158958.38</v>
-      </c>
-      <c r="C30" t="n">
-        <v>158893.91</v>
-      </c>
-      <c r="D30" t="n">
-        <v>158987.12</v>
-      </c>
-      <c r="E30" t="n">
-        <v>158901.2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>158928.17</v>
-      </c>
-      <c r="G30" t="n">
-        <v>158883.68</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1729,40 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>23428.99</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23438.39</v>
+      </c>
+      <c r="D31" t="n">
+        <v>23436.26</v>
+      </c>
+      <c r="E31" t="n">
+        <v>23448.76</v>
+      </c>
+      <c r="F31" t="n">
+        <v>23443.89</v>
+      </c>
+      <c r="G31" t="n">
+        <v>23434.99</v>
+      </c>
+      <c r="H31" t="n">
+        <v>23432.39</v>
+      </c>
+      <c r="I31" t="n">
+        <v>23455.25</v>
+      </c>
+      <c r="J31" t="n">
+        <v>23441.1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>23434.04</v>
+      </c>
+      <c r="L31" t="n">
+        <v>23452.13</v>
+      </c>
+      <c r="M31" t="n">
         <v>23454.24</v>
-      </c>
-      <c r="C31" t="n">
-        <v>23448.69</v>
-      </c>
-      <c r="D31" t="n">
-        <v>23447.02</v>
-      </c>
-      <c r="E31" t="n">
-        <v>28450.84</v>
-      </c>
-      <c r="F31" t="n">
-        <v>28426.13</v>
-      </c>
-      <c r="G31" t="n">
-        <v>28433.18</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1772,40 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>497222.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>527029.26</v>
+      </c>
+      <c r="D32" t="n">
+        <v>557314.03</v>
+      </c>
+      <c r="E32" t="n">
+        <v>547210.91</v>
+      </c>
+      <c r="F32" t="n">
+        <v>537219.0600000001</v>
+      </c>
+      <c r="G32" t="n">
+        <v>517236.81</v>
+      </c>
+      <c r="H32" t="n">
+        <v>522053.99</v>
+      </c>
+      <c r="I32" t="n">
+        <v>457286.38</v>
+      </c>
+      <c r="J32" t="n">
+        <v>437078.97</v>
+      </c>
+      <c r="K32" t="n">
+        <v>422228.01</v>
+      </c>
+      <c r="L32" t="n">
+        <v>402183.91</v>
+      </c>
+      <c r="M32" t="n">
         <v>402240.42</v>
-      </c>
-      <c r="C32" t="n">
-        <v>387202.29</v>
-      </c>
-      <c r="D32" t="n">
-        <v>387392.09</v>
-      </c>
-      <c r="E32" t="n">
-        <v>382211.14</v>
-      </c>
-      <c r="F32" t="n">
-        <v>382120.48</v>
-      </c>
-      <c r="G32" t="n">
-        <v>370036.48</v>
       </c>
     </row>
     <row r="33">
@@ -1247,22 +1815,40 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>684012.05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>818839.23</v>
+      </c>
+      <c r="D33" t="n">
+        <v>698816.87</v>
+      </c>
+      <c r="E33" t="n">
+        <v>733523.4300000001</v>
+      </c>
+      <c r="F33" t="n">
+        <v>733509.4300000001</v>
+      </c>
+      <c r="G33" t="n">
+        <v>739039.12</v>
+      </c>
+      <c r="H33" t="n">
+        <v>783769</v>
+      </c>
+      <c r="I33" t="n">
+        <v>798514.79</v>
+      </c>
+      <c r="J33" t="n">
+        <v>798871.51</v>
+      </c>
+      <c r="K33" t="n">
+        <v>798918.5699999999</v>
+      </c>
+      <c r="L33" t="n">
+        <v>788577.6800000001</v>
+      </c>
+      <c r="M33" t="n">
         <v>783730.7</v>
-      </c>
-      <c r="C33" t="n">
-        <v>773540.08</v>
-      </c>
-      <c r="D33" t="n">
-        <v>774382.03</v>
-      </c>
-      <c r="E33" t="n">
-        <v>783868.0699999999</v>
-      </c>
-      <c r="F33" t="n">
-        <v>799081.74</v>
-      </c>
-      <c r="G33" t="n">
-        <v>854037.45</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1858,40 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>178648.66</v>
+      </c>
+      <c r="C34" t="n">
+        <v>186971.6</v>
+      </c>
+      <c r="D34" t="n">
+        <v>240065.24</v>
+      </c>
+      <c r="E34" t="n">
+        <v>251453.6</v>
+      </c>
+      <c r="F34" t="n">
+        <v>249070.29</v>
+      </c>
+      <c r="G34" t="n">
+        <v>249013.09</v>
+      </c>
+      <c r="H34" t="n">
+        <v>295845.39</v>
+      </c>
+      <c r="I34" t="n">
+        <v>295788.88</v>
+      </c>
+      <c r="J34" t="n">
+        <v>295716.14</v>
+      </c>
+      <c r="K34" t="n">
+        <v>295671.94</v>
+      </c>
+      <c r="L34" t="n">
+        <v>293830.08</v>
+      </c>
+      <c r="M34" t="n">
         <v>258774.53</v>
-      </c>
-      <c r="C34" t="n">
-        <v>258869.42</v>
-      </c>
-      <c r="D34" t="n">
-        <v>251767.04</v>
-      </c>
-      <c r="E34" t="n">
-        <v>249120.33</v>
-      </c>
-      <c r="F34" t="n">
-        <v>253501.65</v>
-      </c>
-      <c r="G34" t="n">
-        <v>269055.8</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1901,40 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>3293.51</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3306.52</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3660.25</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3668.43</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3654.98</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3660.16</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3660.52</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3659.47</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3666.96</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3663.45</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3658.11</v>
+      </c>
+      <c r="M35" t="n">
         <v>3652.44</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3471.86</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3481.5</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3466.49</v>
-      </c>
-      <c r="F35" t="n">
-        <v>3462.42</v>
-      </c>
-      <c r="G35" t="n">
-        <v>3466.96</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1944,40 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>176968.13</v>
+      </c>
+      <c r="C36" t="n">
+        <v>179599.7</v>
+      </c>
+      <c r="D36" t="n">
+        <v>194237.63</v>
+      </c>
+      <c r="E36" t="n">
+        <v>218520.04</v>
+      </c>
+      <c r="F36" t="n">
+        <v>220959.96</v>
+      </c>
+      <c r="G36" t="n">
+        <v>220934.33</v>
+      </c>
+      <c r="H36" t="n">
+        <v>220945.97</v>
+      </c>
+      <c r="I36" t="n">
+        <v>225040.8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>222067.53</v>
+      </c>
+      <c r="K36" t="n">
+        <v>212000.04</v>
+      </c>
+      <c r="L36" t="n">
+        <v>207494</v>
+      </c>
+      <c r="M36" t="n">
         <v>208485.73</v>
-      </c>
-      <c r="C36" t="n">
-        <v>203955.06</v>
-      </c>
-      <c r="D36" t="n">
-        <v>204175.33</v>
-      </c>
-      <c r="E36" t="n">
-        <v>204041.33</v>
-      </c>
-      <c r="F36" t="n">
-        <v>208064.71</v>
-      </c>
-      <c r="G36" t="n">
-        <v>220541.61</v>
       </c>
     </row>
     <row r="37">
@@ -1347,22 +1987,40 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>69023.66</v>
+      </c>
+      <c r="C37" t="n">
+        <v>68983.42999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>69027.87</v>
+      </c>
+      <c r="E37" t="n">
+        <v>68979.39999999999</v>
+      </c>
+      <c r="F37" t="n">
+        <v>68960.09</v>
+      </c>
+      <c r="G37" t="n">
+        <v>69073.95</v>
+      </c>
+      <c r="H37" t="n">
+        <v>69039.96000000001</v>
+      </c>
+      <c r="I37" t="n">
+        <v>69005.75</v>
+      </c>
+      <c r="J37" t="n">
+        <v>69076.58</v>
+      </c>
+      <c r="K37" t="n">
+        <v>69042.89</v>
+      </c>
+      <c r="L37" t="n">
+        <v>68994.25</v>
+      </c>
+      <c r="M37" t="n">
         <v>68991.8</v>
-      </c>
-      <c r="C37" t="n">
-        <v>69036.14</v>
-      </c>
-      <c r="D37" t="n">
-        <v>69028.12</v>
-      </c>
-      <c r="E37" t="n">
-        <v>86565.89999999999</v>
-      </c>
-      <c r="F37" t="n">
-        <v>86489.35000000001</v>
-      </c>
-      <c r="G37" t="n">
-        <v>86512.66</v>
       </c>
     </row>
     <row r="38">
@@ -1372,22 +2030,40 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>154990.57</v>
+      </c>
+      <c r="C38" t="n">
+        <v>155086.04</v>
+      </c>
+      <c r="D38" t="n">
+        <v>111876.62</v>
+      </c>
+      <c r="E38" t="n">
+        <v>126796.8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>134024.19</v>
+      </c>
+      <c r="G38" t="n">
+        <v>134017.51</v>
+      </c>
+      <c r="H38" t="n">
+        <v>134090.79</v>
+      </c>
+      <c r="I38" t="n">
+        <v>134023.6</v>
+      </c>
+      <c r="J38" t="n">
+        <v>134093.88</v>
+      </c>
+      <c r="K38" t="n">
+        <v>134000.31</v>
+      </c>
+      <c r="L38" t="n">
+        <v>134002.58</v>
+      </c>
+      <c r="M38" t="n">
         <v>134041.17</v>
-      </c>
-      <c r="C38" t="n">
-        <v>144103.25</v>
-      </c>
-      <c r="D38" t="n">
-        <v>144213.5</v>
-      </c>
-      <c r="E38" t="n">
-        <v>118496.02</v>
-      </c>
-      <c r="F38" t="n">
-        <v>118502.53</v>
-      </c>
-      <c r="G38" t="n">
-        <v>107218.08</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +2073,38 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>384522.5</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>384460.62</v>
+      </c>
+      <c r="E39" t="n">
+        <v>384494.36</v>
+      </c>
+      <c r="F39" t="n">
+        <v>426540.86</v>
+      </c>
+      <c r="G39" t="n">
+        <v>446627.76</v>
+      </c>
+      <c r="H39" t="n">
+        <v>446522.84</v>
+      </c>
+      <c r="I39" t="n">
+        <v>446639.54</v>
+      </c>
+      <c r="J39" t="n">
+        <v>446431.73</v>
+      </c>
+      <c r="K39" t="n">
+        <v>446593.69</v>
+      </c>
+      <c r="L39" t="n">
+        <v>446638.73</v>
+      </c>
+      <c r="M39" t="n">
         <v>446578.71</v>
-      </c>
-      <c r="C39" t="n">
-        <v>446587.59</v>
-      </c>
-      <c r="D39" t="n">
-        <v>446955.11</v>
-      </c>
-      <c r="E39" t="n">
-        <v>446415.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>446518.03</v>
-      </c>
-      <c r="G39" t="n">
-        <v>446628.79</v>
       </c>
     </row>
     <row r="40">
@@ -1422,22 +2114,40 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>712301.29</v>
+      </c>
+      <c r="C40" t="n">
+        <v>712129.48</v>
+      </c>
+      <c r="D40" t="n">
+        <v>816461.65</v>
+      </c>
+      <c r="E40" t="n">
+        <v>816347.83</v>
+      </c>
+      <c r="F40" t="n">
+        <v>816598.02</v>
+      </c>
+      <c r="G40" t="n">
+        <v>816697.1800000001</v>
+      </c>
+      <c r="H40" t="n">
+        <v>816740.9300000001</v>
+      </c>
+      <c r="I40" t="n">
+        <v>816500.75</v>
+      </c>
+      <c r="J40" t="n">
+        <v>816807.38</v>
+      </c>
+      <c r="K40" t="n">
+        <v>816515.47</v>
+      </c>
+      <c r="L40" t="n">
+        <v>603773.78</v>
+      </c>
+      <c r="M40" t="n">
         <v>604056.54</v>
-      </c>
-      <c r="C40" t="n">
-        <v>603922.6</v>
-      </c>
-      <c r="D40" t="n">
-        <v>604594.33</v>
-      </c>
-      <c r="E40" t="n">
-        <v>701887.33</v>
-      </c>
-      <c r="F40" t="n">
-        <v>797328.58</v>
-      </c>
-      <c r="G40" t="n">
-        <v>797474.47</v>
       </c>
     </row>
     <row r="41">
@@ -1447,22 +2157,40 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>219146.69</v>
+      </c>
+      <c r="C41" t="n">
+        <v>229081.57</v>
+      </c>
+      <c r="D41" t="n">
+        <v>236210.67</v>
+      </c>
+      <c r="E41" t="n">
+        <v>252057.44</v>
+      </c>
+      <c r="F41" t="n">
+        <v>252232.85</v>
+      </c>
+      <c r="G41" t="n">
+        <v>252231.38</v>
+      </c>
+      <c r="H41" t="n">
+        <v>287088.44</v>
+      </c>
+      <c r="I41" t="n">
+        <v>287224.93</v>
+      </c>
+      <c r="J41" t="n">
+        <v>302102.37</v>
+      </c>
+      <c r="K41" t="n">
+        <v>282211.52</v>
+      </c>
+      <c r="L41" t="n">
+        <v>297062.77</v>
+      </c>
+      <c r="M41" t="n">
         <v>297167.08</v>
-      </c>
-      <c r="C41" t="n">
-        <v>297072.31</v>
-      </c>
-      <c r="D41" t="n">
-        <v>297451.81</v>
-      </c>
-      <c r="E41" t="n">
-        <v>297179.38</v>
-      </c>
-      <c r="F41" t="n">
-        <v>297029.11</v>
-      </c>
-      <c r="G41" t="n">
-        <v>321072.72</v>
       </c>
     </row>
     <row r="42">
@@ -1472,22 +2200,40 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>499412.72</v>
+      </c>
+      <c r="C42" t="n">
+        <v>499169.51</v>
+      </c>
+      <c r="D42" t="n">
+        <v>499215.85</v>
+      </c>
+      <c r="E42" t="n">
+        <v>499379.09</v>
+      </c>
+      <c r="F42" t="n">
+        <v>525272.1800000001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>525351.38</v>
+      </c>
+      <c r="H42" t="n">
+        <v>525363.1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>525374.83</v>
+      </c>
+      <c r="J42" t="n">
+        <v>525375.75</v>
+      </c>
+      <c r="K42" t="n">
+        <v>525317.65</v>
+      </c>
+      <c r="L42" t="n">
+        <v>525154.14</v>
+      </c>
+      <c r="M42" t="n">
         <v>525449.0699999999</v>
-      </c>
-      <c r="C42" t="n">
-        <v>559853.53</v>
-      </c>
-      <c r="D42" t="n">
-        <v>560062.79</v>
-      </c>
-      <c r="E42" t="n">
-        <v>421129.08</v>
-      </c>
-      <c r="F42" t="n">
-        <v>420974.51</v>
-      </c>
-      <c r="G42" t="n">
-        <v>381681.54</v>
       </c>
     </row>
     <row r="43">
@@ -1497,22 +2243,40 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>351385.62</v>
+      </c>
+      <c r="C43" t="n">
+        <v>351397.41</v>
+      </c>
+      <c r="D43" t="n">
+        <v>330323.92</v>
+      </c>
+      <c r="E43" t="n">
+        <v>324345.76</v>
+      </c>
+      <c r="F43" t="n">
+        <v>350464.02</v>
+      </c>
+      <c r="G43" t="n">
+        <v>354567.47</v>
+      </c>
+      <c r="H43" t="n">
+        <v>355565.18</v>
+      </c>
+      <c r="I43" t="n">
+        <v>355539.26</v>
+      </c>
+      <c r="J43" t="n">
+        <v>355559.99</v>
+      </c>
+      <c r="K43" t="n">
+        <v>355528.1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>355488.61</v>
+      </c>
+      <c r="M43" t="n">
         <v>345258.77</v>
-      </c>
-      <c r="C43" t="n">
-        <v>326517.57</v>
-      </c>
-      <c r="D43" t="n">
-        <v>326532.95</v>
-      </c>
-      <c r="E43" t="n">
-        <v>330194.85</v>
-      </c>
-      <c r="F43" t="n">
-        <v>326003.83</v>
-      </c>
-      <c r="G43" t="n">
-        <v>355634.78</v>
       </c>
     </row>
     <row r="44">
@@ -1522,22 +2286,40 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>575200.85</v>
+      </c>
+      <c r="C44" t="n">
+        <v>648261.55</v>
+      </c>
+      <c r="D44" t="n">
+        <v>822965.5699999999</v>
+      </c>
+      <c r="E44" t="n">
+        <v>822798.49</v>
+      </c>
+      <c r="F44" t="n">
+        <v>823684.6</v>
+      </c>
+      <c r="G44" t="n">
+        <v>823041.63</v>
+      </c>
+      <c r="H44" t="n">
+        <v>683745.47</v>
+      </c>
+      <c r="I44" t="n">
+        <v>684248.33</v>
+      </c>
+      <c r="J44" t="n">
+        <v>683645.74</v>
+      </c>
+      <c r="K44" t="n">
+        <v>683468.89</v>
+      </c>
+      <c r="L44" t="n">
+        <v>617297.29</v>
+      </c>
+      <c r="M44" t="n">
         <v>617474.86</v>
-      </c>
-      <c r="C44" t="n">
-        <v>617590.35</v>
-      </c>
-      <c r="D44" t="n">
-        <v>617543.66</v>
-      </c>
-      <c r="E44" t="n">
-        <v>617255.66</v>
-      </c>
-      <c r="F44" t="n">
-        <v>630985.04</v>
-      </c>
-      <c r="G44" t="n">
-        <v>630872.1800000001</v>
       </c>
     </row>
     <row r="45">
@@ -1547,122 +2329,262 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>1203933.93</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1204311.98</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1144753.12</v>
+      </c>
+      <c r="E45" t="n">
+        <v>969327.3199999999</v>
+      </c>
+      <c r="F45" t="n">
+        <v>970523.6</v>
+      </c>
+      <c r="G45" t="n">
+        <v>973379</v>
+      </c>
+      <c r="H45" t="n">
+        <v>969280.55</v>
+      </c>
+      <c r="I45" t="n">
+        <v>972270.09</v>
+      </c>
+      <c r="J45" t="n">
+        <v>969270.48</v>
+      </c>
+      <c r="K45" t="n">
+        <v>969781.17</v>
+      </c>
+      <c r="L45" t="n">
+        <v>970484.38</v>
+      </c>
+      <c r="M45" t="n">
         <v>964084.92</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1074165.22</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1076171.32</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1115806.42</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1056496.92</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1055886.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2084354.19</v>
+        <v>5196347.47</v>
       </c>
       <c r="C46" t="n">
-        <v>2061801.95</v>
+        <v>6129297.29</v>
       </c>
       <c r="D46" t="n">
-        <v>2063719.35</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2265310</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2266309.11</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2265240.54</v>
-      </c>
+        <v>5769449.99</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>175119.68</v>
+        <v>2059650.51</v>
       </c>
       <c r="C47" t="n">
-        <v>175089.63</v>
+        <v>2060160.46</v>
       </c>
       <c r="D47" t="n">
-        <v>175283.75</v>
+        <v>2058718.35</v>
       </c>
       <c r="E47" t="n">
-        <v>175119.24</v>
+        <v>2060247.51</v>
       </c>
       <c r="F47" t="n">
-        <v>175135.51</v>
+        <v>2182359.9</v>
       </c>
       <c r="G47" t="n">
-        <v>175166.49</v>
+        <v>2290050.56</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2290561.01</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2085037.06</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2084835.58</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2083607.58</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2084163.36</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2084354.19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>533349.95</v>
+        <v>142614.86</v>
       </c>
       <c r="C48" t="n">
-        <v>534803.75</v>
+        <v>175036.86</v>
       </c>
       <c r="D48" t="n">
-        <v>534292.67</v>
+        <v>175109.64</v>
       </c>
       <c r="E48" t="n">
-        <v>542952.49</v>
+        <v>175032.99</v>
       </c>
       <c r="F48" t="n">
-        <v>547314.11</v>
+        <v>175054.35</v>
       </c>
       <c r="G48" t="n">
-        <v>553275.33</v>
+        <v>175085.68</v>
+      </c>
+      <c r="H48" t="n">
+        <v>175063.77</v>
+      </c>
+      <c r="I48" t="n">
+        <v>175113.35</v>
+      </c>
+      <c r="J48" t="n">
+        <v>175058.82</v>
+      </c>
+      <c r="K48" t="n">
+        <v>175153.57</v>
+      </c>
+      <c r="L48" t="n">
+        <v>175043.09</v>
+      </c>
+      <c r="M48" t="n">
+        <v>175119.68</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>80403.62</v>
+      </c>
+      <c r="C49" t="n">
+        <v>80466.45</v>
+      </c>
+      <c r="D49" t="n">
+        <v>95943.16</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>586600.46</v>
+      </c>
+      <c r="C50" t="n">
+        <v>636311.67</v>
+      </c>
+      <c r="D50" t="n">
+        <v>635288.74</v>
+      </c>
+      <c r="E50" t="n">
+        <v>540291.47</v>
+      </c>
+      <c r="F50" t="n">
+        <v>552545.9</v>
+      </c>
+      <c r="G50" t="n">
+        <v>553412.22</v>
+      </c>
+      <c r="H50" t="n">
+        <v>549104.29</v>
+      </c>
+      <c r="I50" t="n">
+        <v>542300.1800000001</v>
+      </c>
+      <c r="J50" t="n">
+        <v>549037.89</v>
+      </c>
+      <c r="K50" t="n">
+        <v>548328.05</v>
+      </c>
+      <c r="L50" t="n">
+        <v>535996.22</v>
+      </c>
+      <c r="M50" t="n">
+        <v>533349.95</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B51" t="n">
+        <v>28156822.17</v>
+      </c>
+      <c r="C51" t="n">
+        <v>23543531.89</v>
+      </c>
+      <c r="D51" t="n">
+        <v>30493859.57</v>
+      </c>
+      <c r="E51" t="n">
+        <v>24853407.63</v>
+      </c>
+      <c r="F51" t="n">
+        <v>25417111.56</v>
+      </c>
+      <c r="G51" t="n">
+        <v>25456962.22</v>
+      </c>
+      <c r="H51" t="n">
+        <v>25258797.14</v>
+      </c>
+      <c r="I51" t="n">
+        <v>24945808.38</v>
+      </c>
+      <c r="J51" t="n">
+        <v>25255743.11</v>
+      </c>
+      <c r="K51" t="n">
+        <v>25223090.45</v>
+      </c>
+      <c r="L51" t="n">
+        <v>24655826.18</v>
+      </c>
+      <c r="M51" t="n">
         <v>24534097.73</v>
-      </c>
-      <c r="C49" t="n">
-        <v>24600972.63</v>
-      </c>
-      <c r="D49" t="n">
-        <v>24577462.7</v>
-      </c>
-      <c r="E49" t="n">
-        <v>24975814.71</v>
-      </c>
-      <c r="F49" t="n">
-        <v>25176448.84</v>
-      </c>
-      <c r="G49" t="n">
-        <v>25450665.29</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GGAL.xlsx
+++ b/backend/src/excel_handler/files/GGAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415270.78</v>
+        <v>493054.75</v>
       </c>
       <c r="C2" t="n">
-        <v>481772.99</v>
+        <v>514446.65</v>
       </c>
       <c r="D2" t="n">
-        <v>534772.59</v>
+        <v>514824.39</v>
       </c>
       <c r="E2" t="n">
-        <v>534392.9300000001</v>
+        <v>514332.38</v>
       </c>
       <c r="F2" t="n">
-        <v>554771.3199999999</v>
+        <v>542811.26</v>
       </c>
       <c r="G2" t="n">
-        <v>555059.64</v>
+        <v>551783.9</v>
       </c>
       <c r="H2" t="n">
-        <v>598294.64</v>
+        <v>551951.1800000001</v>
       </c>
       <c r="I2" t="n">
-        <v>498785.52</v>
+        <v>551788.4</v>
       </c>
       <c r="J2" t="n">
-        <v>492823.95</v>
+        <v>716973.2</v>
       </c>
       <c r="K2" t="n">
-        <v>493073.47</v>
+        <v>753426.85</v>
       </c>
       <c r="L2" t="n">
-        <v>492751.08</v>
+        <v>761786.9399999999</v>
       </c>
       <c r="M2" t="n">
-        <v>493054.75</v>
+        <v>792220.64</v>
+      </c>
+      <c r="N2" t="n">
+        <v>792379.1899999999</v>
+      </c>
+      <c r="O2" t="n">
+        <v>798486.65</v>
+      </c>
+      <c r="P2" t="n">
+        <v>815342.33</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>808469.91</v>
+      </c>
+      <c r="R2" t="n">
+        <v>927295.6899999999</v>
+      </c>
+      <c r="S2" t="n">
+        <v>969887.45</v>
+      </c>
+      <c r="T2" t="n">
+        <v>958783.1800000001</v>
+      </c>
+      <c r="U2" t="n">
+        <v>928408.88</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1077290.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1181601.38</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1226980.97</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1196705.85</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1054393.78</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1035849.62</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1270798.49</v>
+        <v>1364663.64</v>
       </c>
       <c r="C3" t="n">
-        <v>1302259.16</v>
+        <v>1336801.03</v>
       </c>
       <c r="D3" t="n">
-        <v>1320798.86</v>
+        <v>1338147.25</v>
       </c>
       <c r="E3" t="n">
-        <v>1368437.02</v>
+        <v>1314767.74</v>
       </c>
       <c r="F3" t="n">
-        <v>1315661.32</v>
+        <v>1314385.77</v>
       </c>
       <c r="G3" t="n">
-        <v>1351217.02</v>
+        <v>1372409.78</v>
       </c>
       <c r="H3" t="n">
-        <v>1286365.41</v>
+        <v>1399192.36</v>
       </c>
       <c r="I3" t="n">
-        <v>1286174.38</v>
+        <v>1371671.32</v>
       </c>
       <c r="J3" t="n">
-        <v>1315635.81</v>
+        <v>1439778.34</v>
       </c>
       <c r="K3" t="n">
-        <v>1315338.7</v>
+        <v>1439770.59</v>
       </c>
       <c r="L3" t="n">
-        <v>1315907.76</v>
+        <v>1426272.37</v>
       </c>
       <c r="M3" t="n">
-        <v>1364663.64</v>
+        <v>1447040.12</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1446948.95</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1446720.83</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1471414.36</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1569476.24</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1583873.87</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1640555.03</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1597167.16</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1559769.81</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1559928.82</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1663277.32</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1710203.43</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1665015.56</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1428684.6</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1396548.17</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166695.94</v>
+        <v>197162.54</v>
       </c>
       <c r="C4" t="n">
-        <v>179770.69</v>
+        <v>197203.31</v>
       </c>
       <c r="D4" t="n">
-        <v>188773.75</v>
+        <v>196874.96</v>
       </c>
       <c r="E4" t="n">
-        <v>188670.21</v>
+        <v>197241.87</v>
       </c>
       <c r="F4" t="n">
-        <v>209698.91</v>
+        <v>197192.17</v>
       </c>
       <c r="G4" t="n">
-        <v>210333.15</v>
+        <v>197171.97</v>
       </c>
       <c r="H4" t="n">
-        <v>209713.2</v>
+        <v>197180.07</v>
       </c>
       <c r="I4" t="n">
-        <v>209719.13</v>
+        <v>197185.5</v>
       </c>
       <c r="J4" t="n">
-        <v>210487.41</v>
+        <v>197152.07</v>
       </c>
       <c r="K4" t="n">
-        <v>209661.25</v>
+        <v>197227.5</v>
       </c>
       <c r="L4" t="n">
-        <v>197183.25</v>
+        <v>197260.09</v>
       </c>
       <c r="M4" t="n">
-        <v>197162.54</v>
+        <v>196427.27</v>
+      </c>
+      <c r="N4" t="n">
+        <v>196698.79</v>
+      </c>
+      <c r="O4" t="n">
+        <v>196286.75</v>
+      </c>
+      <c r="P4" t="n">
+        <v>216453.59</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>273220.47</v>
+      </c>
+      <c r="R4" t="n">
+        <v>273229.36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>273196.02</v>
+      </c>
+      <c r="T4" t="n">
+        <v>269287.27</v>
+      </c>
+      <c r="U4" t="n">
+        <v>134824.97</v>
+      </c>
+      <c r="V4" t="n">
+        <v>167822.96</v>
+      </c>
+      <c r="W4" t="n">
+        <v>164579.66</v>
+      </c>
+      <c r="X4" t="n">
+        <v>181764.6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>137261.81</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>137388.69</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>137405.2</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>276849.27</v>
+        <v>284535.66</v>
       </c>
       <c r="C5" t="n">
-        <v>276800.16</v>
+        <v>284684.22</v>
       </c>
       <c r="D5" t="n">
-        <v>280918.85</v>
+        <v>284748.94</v>
       </c>
       <c r="E5" t="n">
-        <v>280929.31</v>
+        <v>284551.4</v>
       </c>
       <c r="F5" t="n">
-        <v>280865.72</v>
+        <v>313262.77</v>
       </c>
       <c r="G5" t="n">
-        <v>280925.87</v>
+        <v>329301.92</v>
       </c>
       <c r="H5" t="n">
-        <v>281013.37</v>
+        <v>356954.89</v>
       </c>
       <c r="I5" t="n">
-        <v>280875.16</v>
+        <v>347174.69</v>
       </c>
       <c r="J5" t="n">
-        <v>280999.49</v>
+        <v>399036.04</v>
       </c>
       <c r="K5" t="n">
-        <v>284573.27</v>
+        <v>399086.84</v>
       </c>
       <c r="L5" t="n">
-        <v>284516.09</v>
+        <v>409275.29</v>
       </c>
       <c r="M5" t="n">
-        <v>284535.66</v>
+        <v>447407.48</v>
+      </c>
+      <c r="N5" t="n">
+        <v>492891.23</v>
+      </c>
+      <c r="O5" t="n">
+        <v>498680.26</v>
+      </c>
+      <c r="P5" t="n">
+        <v>513286.34</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>550551.83</v>
+      </c>
+      <c r="R5" t="n">
+        <v>553848.5699999999</v>
+      </c>
+      <c r="S5" t="n">
+        <v>585039.1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>595685.6899999999</v>
+      </c>
+      <c r="U5" t="n">
+        <v>614882.88</v>
+      </c>
+      <c r="V5" t="n">
+        <v>638206.87</v>
+      </c>
+      <c r="W5" t="n">
+        <v>638290.27</v>
+      </c>
+      <c r="X5" t="n">
+        <v>649509.5600000001</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>645263.21</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>556232.03</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>566119.24</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>389935.77</v>
+        <v>809425.03</v>
       </c>
       <c r="C6" t="n">
-        <v>504610.36</v>
+        <v>809177.41</v>
       </c>
       <c r="D6" t="n">
-        <v>504274.05</v>
+        <v>810114.3100000001</v>
       </c>
       <c r="E6" t="n">
-        <v>583517.29</v>
+        <v>809482.87</v>
       </c>
       <c r="F6" t="n">
-        <v>684006.17</v>
+        <v>809450.88</v>
       </c>
       <c r="G6" t="n">
-        <v>683986.86</v>
+        <v>809601.42</v>
       </c>
       <c r="H6" t="n">
-        <v>683987.86</v>
+        <v>809313.2</v>
       </c>
       <c r="I6" t="n">
-        <v>684054.29</v>
+        <v>809659.47</v>
       </c>
       <c r="J6" t="n">
-        <v>768885.1899999999</v>
+        <v>809285.5600000001</v>
       </c>
       <c r="K6" t="n">
-        <v>809502.79</v>
+        <v>809664.84</v>
       </c>
       <c r="L6" t="n">
-        <v>809560.48</v>
+        <v>809579.9399999999</v>
       </c>
       <c r="M6" t="n">
-        <v>809425.03</v>
+        <v>837808.16</v>
+      </c>
+      <c r="N6" t="n">
+        <v>906028.72</v>
+      </c>
+      <c r="O6" t="n">
+        <v>905901.58</v>
+      </c>
+      <c r="P6" t="n">
+        <v>905874.26</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>905791.77</v>
+      </c>
+      <c r="R6" t="n">
+        <v>906243.13</v>
+      </c>
+      <c r="S6" t="n">
+        <v>944954.1800000001</v>
+      </c>
+      <c r="T6" t="n">
+        <v>945506.67</v>
+      </c>
+      <c r="U6" t="n">
+        <v>944845.4300000001</v>
+      </c>
+      <c r="V6" t="n">
+        <v>944644.6800000001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>944824.96</v>
+      </c>
+      <c r="X6" t="n">
+        <v>944839.55</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>944790.29</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>945231.35</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>926302.09</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.71</v>
+        <v>129.43</v>
       </c>
       <c r="C7" t="n">
-        <v>143.82</v>
+        <v>128.55</v>
       </c>
       <c r="D7" t="n">
-        <v>140.47</v>
+        <v>126.22</v>
       </c>
       <c r="E7" t="n">
-        <v>143.13</v>
+        <v>128.07</v>
       </c>
       <c r="F7" t="n">
-        <v>140.11</v>
+        <v>112.52</v>
       </c>
       <c r="G7" t="n">
-        <v>141.16</v>
+        <v>113.31</v>
       </c>
       <c r="H7" t="n">
-        <v>141.33</v>
+        <v>114.6</v>
       </c>
       <c r="I7" t="n">
-        <v>138.39</v>
+        <v>114.6</v>
       </c>
       <c r="J7" t="n">
-        <v>137.09</v>
+        <v>109.61</v>
       </c>
       <c r="K7" t="n">
-        <v>129.83</v>
+        <v>105.37</v>
       </c>
       <c r="L7" t="n">
-        <v>130.35</v>
+        <v>106.62</v>
       </c>
       <c r="M7" t="n">
-        <v>129.43</v>
+        <v>103.59</v>
+      </c>
+      <c r="N7" t="n">
+        <v>105.96</v>
+      </c>
+      <c r="O7" t="n">
+        <v>103.46</v>
+      </c>
+      <c r="P7" t="n">
+        <v>102.39</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>102.16</v>
+      </c>
+      <c r="S7" t="n">
+        <v>99.31</v>
+      </c>
+      <c r="T7" t="n">
+        <v>98.31999999999999</v>
+      </c>
+      <c r="U7" t="n">
+        <v>92.54000000000001</v>
+      </c>
+      <c r="V7" t="n">
+        <v>76.09</v>
+      </c>
+      <c r="W7" t="n">
+        <v>72.83</v>
+      </c>
+      <c r="X7" t="n">
+        <v>73.73</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>72.89</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>71.18000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>877114.3</v>
+        <v>1154125.93</v>
       </c>
       <c r="C8" t="n">
-        <v>877123.52</v>
+        <v>1153841.32</v>
       </c>
       <c r="D8" t="n">
-        <v>936853.51</v>
+        <v>1154555.72</v>
       </c>
       <c r="E8" t="n">
-        <v>936856.3100000001</v>
+        <v>1101531.28</v>
       </c>
       <c r="F8" t="n">
-        <v>1153946.72</v>
+        <v>1102151.72</v>
       </c>
       <c r="G8" t="n">
-        <v>1154166.81</v>
+        <v>1101561.26</v>
       </c>
       <c r="H8" t="n">
-        <v>1154021.97</v>
+        <v>991976.27</v>
       </c>
       <c r="I8" t="n">
-        <v>1154365.53</v>
+        <v>930063.3199999999</v>
       </c>
       <c r="J8" t="n">
-        <v>1154570.53</v>
+        <v>929837.37</v>
       </c>
       <c r="K8" t="n">
-        <v>1153816.88</v>
+        <v>883802.58</v>
       </c>
       <c r="L8" t="n">
-        <v>1154391.21</v>
+        <v>883638.23</v>
       </c>
       <c r="M8" t="n">
-        <v>1154125.93</v>
+        <v>1023826.56</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1023994.15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1023678.88</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1007170.66</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1007247.09</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1007566.63</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1007283.01</v>
+      </c>
+      <c r="T8" t="n">
+        <v>835158.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>834590.16</v>
+      </c>
+      <c r="V8" t="n">
+        <v>820110.03</v>
+      </c>
+      <c r="W8" t="n">
+        <v>819579.36</v>
+      </c>
+      <c r="X8" t="n">
+        <v>819909.4399999999</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>819724.04</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>819477.4</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>797400.05</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>458758.84</v>
+        <v>512469.9</v>
       </c>
       <c r="C9" t="n">
-        <v>491182.96</v>
+        <v>512585.77</v>
       </c>
       <c r="D9" t="n">
-        <v>491368.15</v>
+        <v>512784.38</v>
       </c>
       <c r="E9" t="n">
-        <v>491181.85</v>
+        <v>512448.19</v>
       </c>
       <c r="F9" t="n">
-        <v>491379.23</v>
+        <v>512496.17</v>
       </c>
       <c r="G9" t="n">
-        <v>512483.61</v>
+        <v>567702.09</v>
       </c>
       <c r="H9" t="n">
-        <v>512407.28</v>
+        <v>567329.3199999999</v>
       </c>
       <c r="I9" t="n">
-        <v>512540.66</v>
+        <v>567523.14</v>
       </c>
       <c r="J9" t="n">
-        <v>512652.89</v>
+        <v>567484.62</v>
       </c>
       <c r="K9" t="n">
-        <v>512746.36</v>
+        <v>567318.03</v>
       </c>
       <c r="L9" t="n">
-        <v>512361.77</v>
+        <v>567562.42</v>
       </c>
       <c r="M9" t="n">
-        <v>512469.9</v>
+        <v>567561.54</v>
+      </c>
+      <c r="N9" t="n">
+        <v>567360.91</v>
+      </c>
+      <c r="O9" t="n">
+        <v>567336.47</v>
+      </c>
+      <c r="P9" t="n">
+        <v>567588.16</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>567495.98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>567593.66</v>
+      </c>
+      <c r="S9" t="n">
+        <v>599885.85</v>
+      </c>
+      <c r="T9" t="n">
+        <v>600326.86</v>
+      </c>
+      <c r="U9" t="n">
+        <v>599837.66</v>
+      </c>
+      <c r="V9" t="n">
+        <v>599721.15</v>
+      </c>
+      <c r="W9" t="n">
+        <v>630675.63</v>
+      </c>
+      <c r="X9" t="n">
+        <v>630661.53</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>630563.4300000001</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>630616.54</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>630352.1800000001</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +1252,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33664.45</v>
+        <v>19086.14</v>
       </c>
       <c r="C10" t="n">
-        <v>25692.65</v>
+        <v>19062.81</v>
       </c>
       <c r="D10" t="n">
-        <v>25715.49</v>
+        <v>19073.9</v>
       </c>
       <c r="E10" t="n">
-        <v>25708.89</v>
+        <v>19055.61</v>
       </c>
       <c r="F10" t="n">
-        <v>25740.87</v>
+        <v>19046.14</v>
       </c>
       <c r="G10" t="n">
-        <v>30016.74</v>
+        <v>19056.2</v>
       </c>
       <c r="H10" t="n">
-        <v>29998.43</v>
+        <v>19071.12</v>
       </c>
       <c r="I10" t="n">
-        <v>30024.31</v>
+        <v>19094.48</v>
       </c>
       <c r="J10" t="n">
-        <v>30004.86</v>
+        <v>19049.03</v>
       </c>
       <c r="K10" t="n">
-        <v>19067.43</v>
+        <v>22699.91</v>
       </c>
       <c r="L10" t="n">
-        <v>19046.71</v>
+        <v>22687.66</v>
       </c>
       <c r="M10" t="n">
-        <v>19086.14</v>
+        <v>25635.48</v>
+      </c>
+      <c r="N10" t="n">
+        <v>25640.46</v>
+      </c>
+      <c r="O10" t="n">
+        <v>25624.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>25628.21</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>25636.36</v>
+      </c>
+      <c r="R10" t="n">
+        <v>25640.52</v>
+      </c>
+      <c r="S10" t="n">
+        <v>25588.58</v>
+      </c>
+      <c r="T10" t="n">
+        <v>25662.14</v>
+      </c>
+      <c r="U10" t="n">
+        <v>25626.32</v>
+      </c>
+      <c r="V10" t="n">
+        <v>25595.94</v>
+      </c>
+      <c r="W10" t="n">
+        <v>25609.91</v>
+      </c>
+      <c r="X10" t="n">
+        <v>16486.81</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>16486.97</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>22422.4</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>22413.28</v>
       </c>
     </row>
     <row r="11">
@@ -889,41 +1337,75 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>646447.65</v>
+        <v>646291.71</v>
       </c>
       <c r="C11" t="n">
-        <v>647123.4300000001</v>
+        <v>645795.23</v>
       </c>
       <c r="D11" t="n">
-        <v>644697.99</v>
+        <v>646614.45</v>
       </c>
       <c r="E11" t="n">
-        <v>646053.6</v>
+        <v>645657.22</v>
       </c>
       <c r="F11" t="n">
-        <v>645621.64</v>
+        <v>649693.3</v>
       </c>
       <c r="G11" t="n">
-        <v>644319.64</v>
+        <v>647855.33</v>
       </c>
       <c r="H11" t="n">
-        <v>644550.46</v>
+        <v>649256.29</v>
       </c>
       <c r="I11" t="n">
-        <v>646008.86</v>
+        <v>649174.9300000001</v>
       </c>
       <c r="J11" t="n">
-        <v>644278.58</v>
+        <v>647349.64</v>
       </c>
       <c r="K11" t="n">
-        <v>646467.65</v>
+        <v>647707.11</v>
       </c>
       <c r="L11" t="n">
-        <v>644763.96</v>
+        <v>647642.71</v>
       </c>
       <c r="M11" t="n">
-        <v>646291.71</v>
-      </c>
+        <v>649667.4399999999</v>
+      </c>
+      <c r="N11" t="n">
+        <v>648137.42</v>
+      </c>
+      <c r="O11" t="n">
+        <v>647800.73</v>
+      </c>
+      <c r="P11" t="n">
+        <v>647904.86</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>275512.43</v>
+      </c>
+      <c r="R11" t="n">
+        <v>274519.88</v>
+      </c>
+      <c r="S11" t="n">
+        <v>275310.73</v>
+      </c>
+      <c r="T11" t="n">
+        <v>106057.35</v>
+      </c>
+      <c r="U11" t="n">
+        <v>105805.75</v>
+      </c>
+      <c r="V11" t="n">
+        <v>107329.69</v>
+      </c>
+      <c r="W11" t="n">
+        <v>106460.72</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -932,40 +1414,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>55226.19</v>
+        <v>6520.16</v>
       </c>
       <c r="C12" t="n">
-        <v>55246.44</v>
+        <v>6519.57</v>
       </c>
       <c r="D12" t="n">
-        <v>55246.81</v>
+        <v>6523.33</v>
       </c>
       <c r="E12" t="n">
-        <v>55231.31</v>
+        <v>6521.26</v>
       </c>
       <c r="F12" t="n">
-        <v>55135.74</v>
+        <v>6518.37</v>
       </c>
       <c r="G12" t="n">
-        <v>55146.97</v>
+        <v>6518.46</v>
       </c>
       <c r="H12" t="n">
-        <v>55121.44</v>
+        <v>6519.89</v>
       </c>
       <c r="I12" t="n">
-        <v>55134.44</v>
+        <v>6520.11</v>
       </c>
       <c r="J12" t="n">
-        <v>55082.43</v>
+        <v>6519.98</v>
       </c>
       <c r="K12" t="n">
-        <v>6520.32</v>
+        <v>6520.39</v>
       </c>
       <c r="L12" t="n">
-        <v>6519.47</v>
+        <v>33045.03</v>
       </c>
       <c r="M12" t="n">
-        <v>6520.16</v>
+        <v>33038.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>33047.19</v>
+      </c>
+      <c r="O12" t="n">
+        <v>11694.27</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10683.66</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>10680.54</v>
+      </c>
+      <c r="R12" t="n">
+        <v>10678.19</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10683.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>10688.39</v>
+      </c>
+      <c r="U12" t="n">
+        <v>10683.52</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10683.42</v>
+      </c>
+      <c r="W12" t="n">
+        <v>10682.16</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10679.37</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10679.02</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>10684.31</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>10095.01</v>
       </c>
     </row>
     <row r="13">
@@ -975,40 +1499,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2803.67</v>
+        <v>2797.6</v>
       </c>
       <c r="C13" t="n">
-        <v>2800.76</v>
+        <v>2799.32</v>
       </c>
       <c r="D13" t="n">
-        <v>2799.33</v>
+        <v>2801.34</v>
       </c>
       <c r="E13" t="n">
-        <v>2801.46</v>
+        <v>2796.71</v>
       </c>
       <c r="F13" t="n">
-        <v>2802.67</v>
+        <v>2802.77</v>
       </c>
       <c r="G13" t="n">
-        <v>2798.63</v>
+        <v>2796.39</v>
       </c>
       <c r="H13" t="n">
-        <v>2797.08</v>
+        <v>2802.63</v>
       </c>
       <c r="I13" t="n">
-        <v>2799.52</v>
+        <v>2802.11</v>
       </c>
       <c r="J13" t="n">
-        <v>2799.12</v>
+        <v>2801.78</v>
       </c>
       <c r="K13" t="n">
-        <v>2797.83</v>
+        <v>2797.13</v>
       </c>
       <c r="L13" t="n">
-        <v>2801.98</v>
+        <v>2802.11</v>
       </c>
       <c r="M13" t="n">
-        <v>2797.6</v>
+        <v>2798.02</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2800.73</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2799.14</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2802.59</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2802.32</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2800.39</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2799.8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2798.95</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2802.39</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2802.68</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2802.73</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2798.27</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2801.15</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2798.31</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2799.74</v>
       </c>
     </row>
     <row r="14">
@@ -1018,40 +1584,82 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2207.1</v>
+        <v>1840.43</v>
       </c>
       <c r="C14" t="n">
-        <v>2173.2</v>
+        <v>1836.52</v>
       </c>
       <c r="D14" t="n">
-        <v>2201.31</v>
+        <v>1867.17</v>
       </c>
       <c r="E14" t="n">
-        <v>2177.04</v>
+        <v>1862.92</v>
       </c>
       <c r="F14" t="n">
-        <v>2199.22</v>
+        <v>1856.59</v>
       </c>
       <c r="G14" t="n">
-        <v>1872.35</v>
+        <v>1835.98</v>
       </c>
       <c r="H14" t="n">
-        <v>1879.15</v>
+        <v>1845.22</v>
       </c>
       <c r="I14" t="n">
-        <v>1868.01</v>
+        <v>1860.45</v>
       </c>
       <c r="J14" t="n">
-        <v>1852.22</v>
+        <v>1862.86</v>
       </c>
       <c r="K14" t="n">
-        <v>1851.88</v>
+        <v>1858.58</v>
       </c>
       <c r="L14" t="n">
-        <v>1850.06</v>
+        <v>1840.16</v>
       </c>
       <c r="M14" t="n">
-        <v>1840.43</v>
+        <v>1840.13</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1853.64</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1852.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1842.19</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1832.82</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1862.62</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2930.47</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2912.41</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2913.72</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2112.67</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2137.28</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1730.11</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1729.84</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1722.4</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1707.82</v>
       </c>
     </row>
     <row r="15">
@@ -1061,1334 +1669,2670 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1081989.66</v>
+        <v>969700.65</v>
       </c>
       <c r="C15" t="n">
-        <v>1250982.01</v>
+        <v>991468.46</v>
       </c>
       <c r="D15" t="n">
-        <v>1195117.45</v>
+        <v>963767.39</v>
       </c>
       <c r="E15" t="n">
-        <v>1034835.25</v>
+        <v>995656.33</v>
       </c>
       <c r="F15" t="n">
-        <v>1034918.55</v>
+        <v>899614.0600000001</v>
       </c>
       <c r="G15" t="n">
-        <v>1055490.68</v>
+        <v>1011430.72</v>
       </c>
       <c r="H15" t="n">
-        <v>1055305.29</v>
+        <v>1043919.66</v>
       </c>
       <c r="I15" t="n">
-        <v>1055035.26</v>
+        <v>1067302.19</v>
       </c>
       <c r="J15" t="n">
-        <v>1035322.64</v>
+        <v>1070930.14</v>
       </c>
       <c r="K15" t="n">
-        <v>1049061.32</v>
+        <v>1079835.31</v>
       </c>
       <c r="L15" t="n">
-        <v>993229.25</v>
+        <v>1110540.9</v>
       </c>
       <c r="M15" t="n">
-        <v>969700.65</v>
+        <v>1186007.6</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1213402.43</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1254078.65</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1301515.6</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1438625.96</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1454714.97</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1464538.04</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1429006.05</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1396587.02</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1450416.8</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1460660.46</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1490712.7</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1459363.05</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1553023.24</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1289079.95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>393366.13</v>
-      </c>
-      <c r="C16" t="n">
-        <v>383510.49</v>
-      </c>
-      <c r="D16" t="n">
-        <v>381004.75</v>
-      </c>
-      <c r="E16" t="n">
-        <v>380021.12</v>
-      </c>
-      <c r="F16" t="n">
-        <v>384076.32</v>
-      </c>
-      <c r="G16" t="n">
-        <v>354833.99</v>
-      </c>
-      <c r="H16" t="n">
-        <v>255925.43</v>
-      </c>
-      <c r="I16" t="n">
-        <v>255761.45</v>
-      </c>
-      <c r="J16" t="n">
-        <v>325702.44</v>
-      </c>
-      <c r="K16" t="n">
-        <v>325801.88</v>
-      </c>
-      <c r="L16" t="n">
-        <v>325824.66</v>
-      </c>
-      <c r="M16" t="n">
-        <v>325675.87</v>
-      </c>
+          <t>Bull Market</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>83948.63</v>
+      </c>
+      <c r="S16" t="n">
+        <v>254269.45</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2055285.96</v>
+        <v>325675.87</v>
       </c>
       <c r="C17" t="n">
-        <v>2056167.82</v>
+        <v>325717.6</v>
       </c>
       <c r="D17" t="n">
-        <v>2056812.2</v>
+        <v>326169.69</v>
       </c>
       <c r="E17" t="n">
-        <v>2040548.37</v>
+        <v>325709.06</v>
       </c>
       <c r="F17" t="n">
-        <v>2041516.86</v>
+        <v>325976.07</v>
       </c>
       <c r="G17" t="n">
-        <v>2030328.85</v>
+        <v>325798.98</v>
       </c>
       <c r="H17" t="n">
-        <v>2025526.24</v>
+        <v>325987.65</v>
       </c>
       <c r="I17" t="n">
-        <v>2017341.48</v>
+        <v>330893.16</v>
       </c>
       <c r="J17" t="n">
-        <v>1995890.85</v>
+        <v>338914.49</v>
       </c>
       <c r="K17" t="n">
-        <v>1981146.37</v>
+        <v>338872.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1975827.67</v>
+        <v>343773.58</v>
       </c>
       <c r="M17" t="n">
-        <v>1960776.46</v>
+        <v>343553.89</v>
+      </c>
+      <c r="N17" t="n">
+        <v>318811.33</v>
+      </c>
+      <c r="O17" t="n">
+        <v>308891.76</v>
+      </c>
+      <c r="P17" t="n">
+        <v>300585.74</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>272986.7</v>
+      </c>
+      <c r="R17" t="n">
+        <v>293162.15</v>
+      </c>
+      <c r="S17" t="n">
+        <v>373028.58</v>
+      </c>
+      <c r="T17" t="n">
+        <v>383445.34</v>
+      </c>
+      <c r="U17" t="n">
+        <v>383221.91</v>
+      </c>
+      <c r="V17" t="n">
+        <v>388062.17</v>
+      </c>
+      <c r="W17" t="n">
+        <v>388079.87</v>
+      </c>
+      <c r="X17" t="n">
+        <v>388076.17</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>385193.64</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>358205.25</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>283104.09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10740.32</v>
+        <v>1960776.46</v>
       </c>
       <c r="C18" t="n">
-        <v>10746.59</v>
+        <v>1952606.84</v>
       </c>
       <c r="D18" t="n">
-        <v>10740.54</v>
+        <v>1934806.39</v>
       </c>
       <c r="E18" t="n">
-        <v>10741.39</v>
+        <v>1920977.9</v>
       </c>
       <c r="F18" t="n">
-        <v>10748.06</v>
+        <v>1921060.92</v>
       </c>
       <c r="G18" t="n">
-        <v>10741.57</v>
+        <v>1919459.4</v>
       </c>
       <c r="H18" t="n">
-        <v>10751.18</v>
+        <v>1981929.77</v>
       </c>
       <c r="I18" t="n">
-        <v>10750.51</v>
+        <v>2075881.44</v>
       </c>
       <c r="J18" t="n">
-        <v>10749.73</v>
+        <v>2166468.1</v>
       </c>
       <c r="K18" t="n">
-        <v>10125.26</v>
+        <v>2166823.95</v>
       </c>
       <c r="L18" t="n">
-        <v>10126.61</v>
+        <v>2166895.62</v>
       </c>
       <c r="M18" t="n">
-        <v>10133.48</v>
+        <v>2162811.63</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2163562.93</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2163005.74</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2164073.54</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2174601.38</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2169417.7</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2168501.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2171256.74</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2169326.99</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2163249.37</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2159828.17</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2145890.84</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2145918.66</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2128473.83</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2091266.88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1427373.73</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>10133.48</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10132.74</v>
+      </c>
       <c r="D19" t="n">
-        <v>1510606.82</v>
+        <v>10142.58</v>
       </c>
       <c r="E19" t="n">
-        <v>1510114.06</v>
+        <v>10126.76</v>
       </c>
       <c r="F19" t="n">
-        <v>1510957.69</v>
+        <v>10126.1</v>
       </c>
       <c r="G19" t="n">
-        <v>1510698.5</v>
+        <v>10132.62</v>
       </c>
       <c r="H19" t="n">
-        <v>1510125.75</v>
+        <v>10132.72</v>
       </c>
       <c r="I19" t="n">
-        <v>1616599.61</v>
+        <v>18653.86</v>
       </c>
       <c r="J19" t="n">
-        <v>1779330.84</v>
+        <v>18659.46</v>
       </c>
       <c r="K19" t="n">
-        <v>1779507.15</v>
+        <v>18655.38</v>
       </c>
       <c r="L19" t="n">
-        <v>1780281.3</v>
+        <v>18656.52</v>
       </c>
       <c r="M19" t="n">
-        <v>1754612.74</v>
+        <v>18647.33</v>
+      </c>
+      <c r="N19" t="n">
+        <v>18653.14</v>
+      </c>
+      <c r="O19" t="n">
+        <v>18657.29</v>
+      </c>
+      <c r="P19" t="n">
+        <v>18652.8</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>18651.35</v>
+      </c>
+      <c r="R19" t="n">
+        <v>18645.19</v>
+      </c>
+      <c r="S19" t="n">
+        <v>18647.09</v>
+      </c>
+      <c r="T19" t="n">
+        <v>18656.24</v>
+      </c>
+      <c r="U19" t="n">
+        <v>18646.32</v>
+      </c>
+      <c r="V19" t="n">
+        <v>18653.94</v>
+      </c>
+      <c r="W19" t="n">
+        <v>18654.69</v>
+      </c>
+      <c r="X19" t="n">
+        <v>18647.76</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>18654.65</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>18652.66</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>18646.84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>692847.28</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>1754612.74</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1754241.52</v>
+      </c>
       <c r="D20" t="n">
-        <v>692794.71</v>
+        <v>1755868.48</v>
       </c>
       <c r="E20" t="n">
-        <v>692701.0600000001</v>
+        <v>1754247.7</v>
       </c>
       <c r="F20" t="n">
-        <v>692388.88</v>
+        <v>1799144.63</v>
       </c>
       <c r="G20" t="n">
-        <v>692798.3</v>
+        <v>1798844.05</v>
       </c>
       <c r="H20" t="n">
-        <v>692612.27</v>
+        <v>1799019.52</v>
       </c>
       <c r="I20" t="n">
-        <v>692804.62</v>
+        <v>1799424.38</v>
       </c>
       <c r="J20" t="n">
-        <v>778028.6</v>
+        <v>1799470.13</v>
       </c>
       <c r="K20" t="n">
-        <v>778204.52</v>
+        <v>1799114.23</v>
       </c>
       <c r="L20" t="n">
-        <v>778296.04</v>
+        <v>1827466.33</v>
       </c>
       <c r="M20" t="n">
-        <v>778123.65</v>
+        <v>1828658.47</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1827627.62</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1827839.91</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1828282.64</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1828390.92</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1932642.1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2160339.95</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2161590.39</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2140544.27</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1970926.51</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1970833.75</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1971268</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1971634.25</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1971701.24</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1745648.74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>155358.8</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>778123.65</v>
+      </c>
+      <c r="C21" t="n">
+        <v>778397.03</v>
+      </c>
       <c r="D21" t="n">
-        <v>155288.03</v>
+        <v>778920.97</v>
       </c>
       <c r="E21" t="n">
-        <v>155412.49</v>
+        <v>778040.03</v>
       </c>
       <c r="F21" t="n">
-        <v>155435.49</v>
+        <v>777941.75</v>
       </c>
       <c r="G21" t="n">
-        <v>155429.95</v>
+        <v>777901.04</v>
       </c>
       <c r="H21" t="n">
-        <v>155294.59</v>
+        <v>778334.58</v>
       </c>
       <c r="I21" t="n">
-        <v>155475.68</v>
+        <v>778259.22</v>
       </c>
       <c r="J21" t="n">
-        <v>155420.62</v>
+        <v>778058.17</v>
       </c>
       <c r="K21" t="n">
-        <v>155356.09</v>
+        <v>777844.5600000001</v>
       </c>
       <c r="L21" t="n">
-        <v>155306.6</v>
+        <v>778358.33</v>
       </c>
       <c r="M21" t="n">
-        <v>155385.45</v>
+        <v>777982.61</v>
+      </c>
+      <c r="N21" t="n">
+        <v>778298.76</v>
+      </c>
+      <c r="O21" t="n">
+        <v>778014.95</v>
+      </c>
+      <c r="P21" t="n">
+        <v>778278.29</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>777951.38</v>
+      </c>
+      <c r="R21" t="n">
+        <v>777912.13</v>
+      </c>
+      <c r="S21" t="n">
+        <v>778323.33</v>
+      </c>
+      <c r="T21" t="n">
+        <v>778778.41</v>
+      </c>
+      <c r="U21" t="n">
+        <v>895392.66</v>
+      </c>
+      <c r="V21" t="n">
+        <v>793190.1899999999</v>
+      </c>
+      <c r="W21" t="n">
+        <v>792714.2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>793074.79</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>793099.91</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>792748.35</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>792939</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3005.23</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>155385.45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>155299.89</v>
+      </c>
       <c r="D22" t="n">
-        <v>2998.58</v>
+        <v>155416.69</v>
       </c>
       <c r="E22" t="n">
-        <v>2996.08</v>
+        <v>155462.3</v>
       </c>
       <c r="F22" t="n">
-        <v>2994.53</v>
+        <v>155472.27</v>
       </c>
       <c r="G22" t="n">
-        <v>2994.68</v>
+        <v>155390.32</v>
       </c>
       <c r="H22" t="n">
-        <v>2998.51</v>
+        <v>155307.32</v>
       </c>
       <c r="I22" t="n">
-        <v>3005.01</v>
+        <v>155445.25</v>
       </c>
       <c r="J22" t="n">
-        <v>2995.72</v>
+        <v>155445.87</v>
       </c>
       <c r="K22" t="n">
-        <v>2995.73</v>
+        <v>155266.14</v>
       </c>
       <c r="L22" t="n">
-        <v>2998.97</v>
+        <v>155353.65</v>
       </c>
       <c r="M22" t="n">
-        <v>3001.98</v>
+        <v>155426.38</v>
+      </c>
+      <c r="N22" t="n">
+        <v>155435.31</v>
+      </c>
+      <c r="O22" t="n">
+        <v>155389.4</v>
+      </c>
+      <c r="P22" t="n">
+        <v>155365.74</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>155270.38</v>
+      </c>
+      <c r="R22" t="n">
+        <v>155274.67</v>
+      </c>
+      <c r="S22" t="n">
+        <v>155455.36</v>
+      </c>
+      <c r="T22" t="n">
+        <v>171121.54</v>
+      </c>
+      <c r="U22" t="n">
+        <v>261207.11</v>
+      </c>
+      <c r="V22" t="n">
+        <v>261085.39</v>
+      </c>
+      <c r="W22" t="n">
+        <v>261186.04</v>
+      </c>
+      <c r="X22" t="n">
+        <v>275360.41</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>196672.16</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>183077.12</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>182906.39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5745.45</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>3001.98</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2999.67</v>
+      </c>
       <c r="D23" t="n">
-        <v>5737.86</v>
+        <v>2997.96</v>
       </c>
       <c r="E23" t="n">
-        <v>5744.73</v>
+        <v>3001.82</v>
       </c>
       <c r="F23" t="n">
-        <v>5741.59</v>
+        <v>3001.34</v>
       </c>
       <c r="G23" t="n">
-        <v>5739.08</v>
+        <v>3003.03</v>
       </c>
       <c r="H23" t="n">
-        <v>5731.2</v>
+        <v>2998.62</v>
       </c>
       <c r="I23" t="n">
-        <v>5743.43</v>
+        <v>2994.06</v>
       </c>
       <c r="J23" t="n">
-        <v>5737.92</v>
+        <v>3002.81</v>
       </c>
       <c r="K23" t="n">
-        <v>5742.88</v>
+        <v>2998.39</v>
       </c>
       <c r="L23" t="n">
-        <v>5743.23</v>
+        <v>3000.37</v>
       </c>
       <c r="M23" t="n">
-        <v>4581.56</v>
+        <v>3001.67</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2998.39</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3002.26</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2995.68</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3003.11</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3002.71</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2999.72</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3001.31</v>
+      </c>
+      <c r="U23" t="n">
+        <v>3000.63</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2997.9</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3002.86</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3003.36</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3004.68</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3005.11</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3005.27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>863971.53</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>4581.56</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4579.54</v>
+      </c>
       <c r="D24" t="n">
-        <v>853327.37</v>
+        <v>4571.03</v>
       </c>
       <c r="E24" t="n">
-        <v>837845.29</v>
+        <v>4572.42</v>
       </c>
       <c r="F24" t="n">
-        <v>838210.74</v>
+        <v>4574.86</v>
       </c>
       <c r="G24" t="n">
-        <v>837192.28</v>
+        <v>4577.54</v>
       </c>
       <c r="H24" t="n">
-        <v>837716.9300000001</v>
+        <v>4569.1</v>
       </c>
       <c r="I24" t="n">
-        <v>837816.04</v>
+        <v>4568.3</v>
       </c>
       <c r="J24" t="n">
-        <v>837537.74</v>
+        <v>4574.88</v>
       </c>
       <c r="K24" t="n">
-        <v>837954.15</v>
+        <v>4579.03</v>
       </c>
       <c r="L24" t="n">
-        <v>837923.12</v>
+        <v>4577.26</v>
       </c>
       <c r="M24" t="n">
-        <v>837965.6899999999</v>
+        <v>4579.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4574.33</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4576.98</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4580.14</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4579.4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4568.7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4574.67</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4580.26</v>
+      </c>
+      <c r="U24" t="n">
+        <v>4571.62</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4568.45</v>
+      </c>
+      <c r="W24" t="n">
+        <v>4577.4</v>
+      </c>
+      <c r="X24" t="n">
+        <v>4569.94</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>4571.67</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>4579.63</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4571.54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>227813.11</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>837965.6899999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>837653.76</v>
+      </c>
       <c r="D25" t="n">
-        <v>227548.67</v>
+        <v>838354.05</v>
       </c>
       <c r="E25" t="n">
-        <v>227772.94</v>
+        <v>837208.55</v>
       </c>
       <c r="F25" t="n">
-        <v>227740.08</v>
+        <v>837374.9399999999</v>
       </c>
       <c r="G25" t="n">
-        <v>227710.35</v>
+        <v>837143.04</v>
       </c>
       <c r="H25" t="n">
-        <v>227006.48</v>
+        <v>837330.95</v>
       </c>
       <c r="I25" t="n">
-        <v>227050.48</v>
+        <v>837963.72</v>
       </c>
       <c r="J25" t="n">
-        <v>227421.55</v>
+        <v>838098.52</v>
       </c>
       <c r="K25" t="n">
-        <v>226963.87</v>
+        <v>837796.78</v>
       </c>
       <c r="L25" t="n">
-        <v>227677.43</v>
+        <v>838190.48</v>
       </c>
       <c r="M25" t="n">
-        <v>226963.55</v>
+        <v>837863.03</v>
+      </c>
+      <c r="N25" t="n">
+        <v>817926.48</v>
+      </c>
+      <c r="O25" t="n">
+        <v>817288.92</v>
+      </c>
+      <c r="P25" t="n">
+        <v>817362.86</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>817948.74</v>
+      </c>
+      <c r="R25" t="n">
+        <v>817720.52</v>
+      </c>
+      <c r="S25" t="n">
+        <v>818006.54</v>
+      </c>
+      <c r="T25" t="n">
+        <v>833492.59</v>
+      </c>
+      <c r="U25" t="n">
+        <v>983602.88</v>
+      </c>
+      <c r="V25" t="n">
+        <v>974506.3100000001</v>
+      </c>
+      <c r="W25" t="n">
+        <v>974375.9399999999</v>
+      </c>
+      <c r="X25" t="n">
+        <v>974595.66</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>974440.71</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>973818.2</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>974204.96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>801516.77</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>226963.55</v>
+      </c>
+      <c r="C26" t="n">
+        <v>226887.99</v>
+      </c>
       <c r="D26" t="n">
-        <v>1090209.39</v>
+        <v>227945.66</v>
       </c>
       <c r="E26" t="n">
-        <v>1208252.81</v>
+        <v>247489.46</v>
       </c>
       <c r="F26" t="n">
-        <v>1245477.76</v>
+        <v>246895.32</v>
       </c>
       <c r="G26" t="n">
-        <v>1174434.68</v>
+        <v>247665.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1099957.94</v>
+        <v>246627.45</v>
       </c>
       <c r="I26" t="n">
-        <v>1058519.98</v>
+        <v>247652.66</v>
       </c>
       <c r="J26" t="n">
-        <v>1065582.86</v>
+        <v>247017.26</v>
       </c>
       <c r="K26" t="n">
-        <v>978408.25</v>
+        <v>247536.05</v>
       </c>
       <c r="L26" t="n">
-        <v>969527.35</v>
+        <v>247483.72</v>
       </c>
       <c r="M26" t="n">
-        <v>969787.13</v>
+        <v>247572.59</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1622.36</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1594.88</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1593.07</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1622.21</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1553.54</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1631.86</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1618.98</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1590.35</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1579.65</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1448.38</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1340.36</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1517.8</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1558.2</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1618.81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>789073.59</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>969787.13</v>
+      </c>
+      <c r="C27" t="n">
+        <v>969174.41</v>
+      </c>
       <c r="D27" t="n">
-        <v>1114953.13</v>
+        <v>980801.9300000001</v>
       </c>
       <c r="E27" t="n">
-        <v>1145836.93</v>
+        <v>1003008.53</v>
       </c>
       <c r="F27" t="n">
-        <v>1146235.66</v>
+        <v>1021076.42</v>
       </c>
       <c r="G27" t="n">
-        <v>1062625.6</v>
+        <v>1013768.86</v>
       </c>
       <c r="H27" t="n">
-        <v>1001370.12</v>
+        <v>1013249.28</v>
       </c>
       <c r="I27" t="n">
-        <v>989175.61</v>
+        <v>1085203.34</v>
       </c>
       <c r="J27" t="n">
-        <v>982393.74</v>
+        <v>1099996.77</v>
       </c>
       <c r="K27" t="n">
-        <v>946198.13</v>
+        <v>1120676.19</v>
       </c>
       <c r="L27" t="n">
-        <v>918657.84</v>
+        <v>1103482.86</v>
       </c>
       <c r="M27" t="n">
-        <v>918818.8100000001</v>
+        <v>1115883.43</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1153438.37</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1200410.36</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1243720.62</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1351498.89</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1524535.11</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1570092.87</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1479564.31</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1355626.38</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1334030.39</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1352359.61</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1397644.71</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1295847.01</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1228195.6</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1239922.43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951415.41</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>918818.8100000001</v>
+      </c>
+      <c r="C28" t="n">
+        <v>910098.9</v>
+      </c>
       <c r="D28" t="n">
-        <v>1040614.86</v>
+        <v>910682.58</v>
       </c>
       <c r="E28" t="n">
-        <v>1226647.53</v>
+        <v>947052.85</v>
       </c>
       <c r="F28" t="n">
-        <v>1219736.24</v>
+        <v>955471.95</v>
       </c>
       <c r="G28" t="n">
-        <v>1220085.82</v>
+        <v>947728.9399999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1270028.73</v>
+        <v>952150.86</v>
       </c>
       <c r="I28" t="n">
-        <v>1257984.57</v>
+        <v>1004858.82</v>
       </c>
       <c r="J28" t="n">
-        <v>1219792.25</v>
+        <v>1065215.42</v>
       </c>
       <c r="K28" t="n">
-        <v>1272256.67</v>
+        <v>1078039.28</v>
       </c>
       <c r="L28" t="n">
-        <v>1159004.88</v>
+        <v>1097239.4</v>
       </c>
       <c r="M28" t="n">
-        <v>1123856.16</v>
+        <v>1118049.69</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1165916.16</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1189533.61</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1239830.37</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1340369.72</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1444906.59</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1471177.08</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1421366.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1277789.51</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1222644.25</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1252695.15</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1271693.53</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1189578.35</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1150787.84</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1221619.35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>728763.61</v>
+        <v>1123856.16</v>
       </c>
       <c r="C29" t="n">
-        <v>774762.45</v>
+        <v>1124041.85</v>
       </c>
       <c r="D29" t="n">
-        <v>777410.3100000001</v>
+        <v>1124665.3</v>
       </c>
       <c r="E29" t="n">
-        <v>817109.2</v>
+        <v>1137002.59</v>
       </c>
       <c r="F29" t="n">
-        <v>822265.92</v>
+        <v>1217987.4</v>
       </c>
       <c r="G29" t="n">
-        <v>856853.84</v>
+        <v>1247537.12</v>
       </c>
       <c r="H29" t="n">
-        <v>882244</v>
+        <v>1227135.5</v>
       </c>
       <c r="I29" t="n">
-        <v>882446.1899999999</v>
+        <v>1331807.89</v>
       </c>
       <c r="J29" t="n">
-        <v>857422.48</v>
+        <v>1367164.86</v>
       </c>
       <c r="K29" t="n">
-        <v>957599.23</v>
+        <v>1402533.6</v>
       </c>
       <c r="L29" t="n">
-        <v>917420.34</v>
+        <v>1472965.57</v>
       </c>
       <c r="M29" t="n">
-        <v>900738.4</v>
+        <v>1638269.3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1849588.57</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1852159.73</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1876977.99</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2107023.61</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2183554.15</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2134174.41</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2094030.95</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2088754.2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2163625.95</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2314202.92</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2416640.77</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2154052.42</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>2257252.81</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>2075266.14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>160124.3</v>
+        <v>900738.4</v>
       </c>
       <c r="C30" t="n">
-        <v>168095.66</v>
+        <v>887669.27</v>
       </c>
       <c r="D30" t="n">
-        <v>158086.43</v>
+        <v>888106.8199999999</v>
       </c>
       <c r="E30" t="n">
-        <v>163095.87</v>
+        <v>1060462.31</v>
       </c>
       <c r="F30" t="n">
-        <v>163125.28</v>
+        <v>1073592.56</v>
       </c>
       <c r="G30" t="n">
-        <v>163093.6</v>
+        <v>1014731.91</v>
       </c>
       <c r="H30" t="n">
-        <v>163141.56</v>
+        <v>1014717.5</v>
       </c>
       <c r="I30" t="n">
-        <v>163087.2</v>
+        <v>1071141.21</v>
       </c>
       <c r="J30" t="n">
-        <v>163103.05</v>
+        <v>996168.8199999999</v>
       </c>
       <c r="K30" t="n">
-        <v>163084.4</v>
+        <v>995988.3</v>
       </c>
       <c r="L30" t="n">
-        <v>158897.83</v>
+        <v>1005814.9</v>
       </c>
       <c r="M30" t="n">
-        <v>158958.38</v>
+        <v>1008808.4</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1128618.54</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1078950.75</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1121217.41</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1216142.46</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1257390.69</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1192546.67</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1187100.06</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1187782.29</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1183645.28</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1338076.2</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1371501.65</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1297213.95</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1301651.72</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1283653.32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>23428.99</v>
+        <v>158958.38</v>
       </c>
       <c r="C31" t="n">
-        <v>23438.39</v>
+        <v>158893.91</v>
       </c>
       <c r="D31" t="n">
-        <v>23436.26</v>
+        <v>158987.12</v>
       </c>
       <c r="E31" t="n">
-        <v>23448.76</v>
+        <v>158901.2</v>
       </c>
       <c r="F31" t="n">
-        <v>23443.89</v>
+        <v>158928.17</v>
       </c>
       <c r="G31" t="n">
-        <v>23434.99</v>
+        <v>158883.68</v>
       </c>
       <c r="H31" t="n">
-        <v>23432.39</v>
+        <v>158858.06</v>
       </c>
       <c r="I31" t="n">
-        <v>23455.25</v>
+        <v>158929.64</v>
       </c>
       <c r="J31" t="n">
-        <v>23441.1</v>
+        <v>158967.53</v>
       </c>
       <c r="K31" t="n">
-        <v>23434.04</v>
+        <v>158899.58</v>
       </c>
       <c r="L31" t="n">
-        <v>23452.13</v>
+        <v>158901.7</v>
       </c>
       <c r="M31" t="n">
-        <v>23454.24</v>
+        <v>183925.2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>183875.11</v>
+      </c>
+      <c r="O31" t="n">
+        <v>183865.63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>183928.14</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>208854.35</v>
+      </c>
+      <c r="R31" t="n">
+        <v>208903.02</v>
+      </c>
+      <c r="S31" t="n">
+        <v>208950.52</v>
+      </c>
+      <c r="T31" t="n">
+        <v>208947.1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>208929.96</v>
+      </c>
+      <c r="V31" t="n">
+        <v>203906.79</v>
+      </c>
+      <c r="W31" t="n">
+        <v>213964.42</v>
+      </c>
+      <c r="X31" t="n">
+        <v>228863.68</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>248926.88</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>233861.35</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>217884.62</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>497222.5</v>
+        <v>23454.24</v>
       </c>
       <c r="C32" t="n">
-        <v>527029.26</v>
+        <v>23448.69</v>
       </c>
       <c r="D32" t="n">
-        <v>557314.03</v>
+        <v>23447.02</v>
       </c>
       <c r="E32" t="n">
-        <v>547210.91</v>
+        <v>28450.84</v>
       </c>
       <c r="F32" t="n">
-        <v>537219.0600000001</v>
+        <v>28426.13</v>
       </c>
       <c r="G32" t="n">
-        <v>517236.81</v>
+        <v>28433.18</v>
       </c>
       <c r="H32" t="n">
-        <v>522053.99</v>
+        <v>28429.09</v>
       </c>
       <c r="I32" t="n">
-        <v>457286.38</v>
+        <v>28433.27</v>
       </c>
       <c r="J32" t="n">
-        <v>437078.97</v>
+        <v>28431.5</v>
       </c>
       <c r="K32" t="n">
-        <v>422228.01</v>
+        <v>28447.21</v>
       </c>
       <c r="L32" t="n">
-        <v>402183.91</v>
+        <v>28426.72</v>
       </c>
       <c r="M32" t="n">
-        <v>402240.42</v>
+        <v>32427.68</v>
+      </c>
+      <c r="N32" t="n">
+        <v>32427.61</v>
+      </c>
+      <c r="O32" t="n">
+        <v>32449.93</v>
+      </c>
+      <c r="P32" t="n">
+        <v>32456.75</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>33925.97</v>
+      </c>
+      <c r="R32" t="n">
+        <v>33957.67</v>
+      </c>
+      <c r="S32" t="n">
+        <v>33937.92</v>
+      </c>
+      <c r="T32" t="n">
+        <v>33951.87</v>
+      </c>
+      <c r="U32" t="n">
+        <v>33933.71</v>
+      </c>
+      <c r="V32" t="n">
+        <v>33958.49</v>
+      </c>
+      <c r="W32" t="n">
+        <v>33936.46</v>
+      </c>
+      <c r="X32" t="n">
+        <v>33930.56</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>33950.06</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>33956.51</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>33932.73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>684012.05</v>
+        <v>402240.42</v>
       </c>
       <c r="C33" t="n">
-        <v>818839.23</v>
+        <v>387202.29</v>
       </c>
       <c r="D33" t="n">
-        <v>698816.87</v>
+        <v>387392.09</v>
       </c>
       <c r="E33" t="n">
-        <v>733523.4300000001</v>
+        <v>382211.14</v>
       </c>
       <c r="F33" t="n">
-        <v>733509.4300000001</v>
+        <v>382120.48</v>
       </c>
       <c r="G33" t="n">
-        <v>739039.12</v>
+        <v>370036.48</v>
       </c>
       <c r="H33" t="n">
-        <v>783769</v>
+        <v>360111.6</v>
       </c>
       <c r="I33" t="n">
-        <v>798514.79</v>
+        <v>360280.87</v>
       </c>
       <c r="J33" t="n">
-        <v>798871.51</v>
+        <v>360243.18</v>
       </c>
       <c r="K33" t="n">
-        <v>798918.5699999999</v>
+        <v>360244.16</v>
       </c>
       <c r="L33" t="n">
-        <v>788577.6800000001</v>
+        <v>380108.34</v>
       </c>
       <c r="M33" t="n">
-        <v>783730.7</v>
+        <v>415121.22</v>
+      </c>
+      <c r="N33" t="n">
+        <v>395188.5</v>
+      </c>
+      <c r="O33" t="n">
+        <v>410205.18</v>
+      </c>
+      <c r="P33" t="n">
+        <v>430025.73</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>440016.16</v>
+      </c>
+      <c r="R33" t="n">
+        <v>440202.18</v>
+      </c>
+      <c r="S33" t="n">
+        <v>450201.8</v>
+      </c>
+      <c r="T33" t="n">
+        <v>450248.99</v>
+      </c>
+      <c r="U33" t="n">
+        <v>435227.43</v>
+      </c>
+      <c r="V33" t="n">
+        <v>445082.02</v>
+      </c>
+      <c r="W33" t="n">
+        <v>445189.53</v>
+      </c>
+      <c r="X33" t="n">
+        <v>485227.05</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>474987.29</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>430030.02</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>400294.16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>178648.66</v>
+        <v>783730.7</v>
       </c>
       <c r="C34" t="n">
-        <v>186971.6</v>
+        <v>773540.08</v>
       </c>
       <c r="D34" t="n">
-        <v>240065.24</v>
+        <v>774382.03</v>
       </c>
       <c r="E34" t="n">
-        <v>251453.6</v>
+        <v>783868.0699999999</v>
       </c>
       <c r="F34" t="n">
-        <v>249070.29</v>
+        <v>799081.74</v>
       </c>
       <c r="G34" t="n">
-        <v>249013.09</v>
+        <v>854037.45</v>
       </c>
       <c r="H34" t="n">
-        <v>295845.39</v>
+        <v>854064.6800000001</v>
       </c>
       <c r="I34" t="n">
-        <v>295788.88</v>
+        <v>853999.38</v>
       </c>
       <c r="J34" t="n">
-        <v>295716.14</v>
+        <v>854067.65</v>
       </c>
       <c r="K34" t="n">
-        <v>295671.94</v>
+        <v>874127.45</v>
       </c>
       <c r="L34" t="n">
-        <v>293830.08</v>
+        <v>898797.03</v>
       </c>
       <c r="M34" t="n">
-        <v>258774.53</v>
+        <v>933769.55</v>
+      </c>
+      <c r="N34" t="n">
+        <v>933958.04</v>
+      </c>
+      <c r="O34" t="n">
+        <v>934068.5699999999</v>
+      </c>
+      <c r="P34" t="n">
+        <v>933530.38</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>943734.48</v>
+      </c>
+      <c r="R34" t="n">
+        <v>943601.28</v>
+      </c>
+      <c r="S34" t="n">
+        <v>953633.3100000001</v>
+      </c>
+      <c r="T34" t="n">
+        <v>953820.11</v>
+      </c>
+      <c r="U34" t="n">
+        <v>953951.38</v>
+      </c>
+      <c r="V34" t="n">
+        <v>968995.95</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1023927.04</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1023644.83</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>993985.78</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>933829.83</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>928881.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3293.51</v>
+        <v>258774.53</v>
       </c>
       <c r="C35" t="n">
-        <v>3306.52</v>
+        <v>258869.42</v>
       </c>
       <c r="D35" t="n">
-        <v>3660.25</v>
+        <v>251767.04</v>
       </c>
       <c r="E35" t="n">
-        <v>3668.43</v>
+        <v>249120.33</v>
       </c>
       <c r="F35" t="n">
-        <v>3654.98</v>
+        <v>253501.65</v>
       </c>
       <c r="G35" t="n">
-        <v>3660.16</v>
+        <v>269055.8</v>
       </c>
       <c r="H35" t="n">
-        <v>3660.52</v>
+        <v>276975.31</v>
       </c>
       <c r="I35" t="n">
-        <v>3659.47</v>
+        <v>286393.29</v>
       </c>
       <c r="J35" t="n">
-        <v>3666.96</v>
+        <v>291177.32</v>
       </c>
       <c r="K35" t="n">
-        <v>3663.45</v>
+        <v>305956.67</v>
       </c>
       <c r="L35" t="n">
-        <v>3658.11</v>
+        <v>306125.26</v>
       </c>
       <c r="M35" t="n">
-        <v>3652.44</v>
+        <v>355769.16</v>
+      </c>
+      <c r="N35" t="n">
+        <v>355669.31</v>
+      </c>
+      <c r="O35" t="n">
+        <v>364535.44</v>
+      </c>
+      <c r="P35" t="n">
+        <v>373543.99</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>373712.73</v>
+      </c>
+      <c r="R35" t="n">
+        <v>373716.15</v>
+      </c>
+      <c r="S35" t="n">
+        <v>373630.56</v>
+      </c>
+      <c r="T35" t="n">
+        <v>326307.81</v>
+      </c>
+      <c r="U35" t="n">
+        <v>283598.03</v>
+      </c>
+      <c r="V35" t="n">
+        <v>277472.17</v>
+      </c>
+      <c r="W35" t="n">
+        <v>271554.04</v>
+      </c>
+      <c r="X35" t="n">
+        <v>282103.28</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>233483.26</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>255604.38</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>255663.54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176968.13</v>
+        <v>3652.44</v>
       </c>
       <c r="C36" t="n">
-        <v>179599.7</v>
+        <v>3471.86</v>
       </c>
       <c r="D36" t="n">
-        <v>194237.63</v>
+        <v>3481.5</v>
       </c>
       <c r="E36" t="n">
-        <v>218520.04</v>
+        <v>3466.49</v>
       </c>
       <c r="F36" t="n">
-        <v>220959.96</v>
+        <v>3462.42</v>
       </c>
       <c r="G36" t="n">
-        <v>220934.33</v>
+        <v>3466.96</v>
       </c>
       <c r="H36" t="n">
-        <v>220945.97</v>
+        <v>3464.96</v>
       </c>
       <c r="I36" t="n">
-        <v>225040.8</v>
+        <v>3461.9</v>
       </c>
       <c r="J36" t="n">
-        <v>222067.53</v>
+        <v>3472.68</v>
       </c>
       <c r="K36" t="n">
-        <v>212000.04</v>
+        <v>3472.53</v>
       </c>
       <c r="L36" t="n">
-        <v>207494</v>
+        <v>3463.98</v>
       </c>
       <c r="M36" t="n">
-        <v>208485.73</v>
+        <v>3466.79</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3465.72</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3471.57</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3467.04</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3474.6</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3463.25</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3469.09</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3474.03</v>
+      </c>
+      <c r="U36" t="n">
+        <v>3475.04</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3464.07</v>
+      </c>
+      <c r="W36" t="n">
+        <v>3477.08</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3279.86</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3278.08</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>3278.99</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>3281.08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69023.66</v>
+        <v>208485.73</v>
       </c>
       <c r="C37" t="n">
-        <v>68983.42999999999</v>
+        <v>203955.06</v>
       </c>
       <c r="D37" t="n">
-        <v>69027.87</v>
+        <v>204175.33</v>
       </c>
       <c r="E37" t="n">
-        <v>68979.39999999999</v>
+        <v>204041.33</v>
       </c>
       <c r="F37" t="n">
-        <v>68960.09</v>
+        <v>208064.71</v>
       </c>
       <c r="G37" t="n">
-        <v>69073.95</v>
+        <v>220541.61</v>
       </c>
       <c r="H37" t="n">
-        <v>69039.96000000001</v>
+        <v>220003.38</v>
       </c>
       <c r="I37" t="n">
-        <v>69005.75</v>
+        <v>220090.91</v>
       </c>
       <c r="J37" t="n">
-        <v>69076.58</v>
+        <v>219985.38</v>
       </c>
       <c r="K37" t="n">
-        <v>69042.89</v>
+        <v>220069.6</v>
       </c>
       <c r="L37" t="n">
-        <v>68994.25</v>
+        <v>219907.92</v>
       </c>
       <c r="M37" t="n">
-        <v>68991.8</v>
+        <v>236101.87</v>
+      </c>
+      <c r="N37" t="n">
+        <v>193930.41</v>
+      </c>
+      <c r="O37" t="n">
+        <v>199964.93</v>
+      </c>
+      <c r="P37" t="n">
+        <v>235945.68</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>284801.8</v>
+      </c>
+      <c r="R37" t="n">
+        <v>284687.29</v>
+      </c>
+      <c r="S37" t="n">
+        <v>303551.7</v>
+      </c>
+      <c r="T37" t="n">
+        <v>299349.25</v>
+      </c>
+      <c r="U37" t="n">
+        <v>286485.78</v>
+      </c>
+      <c r="V37" t="n">
+        <v>300032.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>304367.43</v>
+      </c>
+      <c r="X37" t="n">
+        <v>308529.51</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>309209.51</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>304440.99</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>304537.64</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>154990.57</v>
+        <v>68991.8</v>
       </c>
       <c r="C38" t="n">
-        <v>155086.04</v>
+        <v>69036.14</v>
       </c>
       <c r="D38" t="n">
-        <v>111876.62</v>
+        <v>69028.12</v>
       </c>
       <c r="E38" t="n">
-        <v>126796.8</v>
+        <v>86565.89999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>134024.19</v>
+        <v>86489.35000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>134017.51</v>
+        <v>86512.66</v>
       </c>
       <c r="H38" t="n">
-        <v>134090.79</v>
+        <v>86525.25</v>
       </c>
       <c r="I38" t="n">
-        <v>134023.6</v>
+        <v>86524.78999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>134093.88</v>
+        <v>86583.36</v>
       </c>
       <c r="K38" t="n">
-        <v>134000.31</v>
+        <v>86558.61</v>
       </c>
       <c r="L38" t="n">
-        <v>134002.58</v>
+        <v>86500.49000000001</v>
       </c>
       <c r="M38" t="n">
-        <v>134041.17</v>
+        <v>86544.60000000001</v>
+      </c>
+      <c r="N38" t="n">
+        <v>86472.95</v>
+      </c>
+      <c r="O38" t="n">
+        <v>86469.60000000001</v>
+      </c>
+      <c r="P38" t="n">
+        <v>78515.47</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>83057.67999999999</v>
+      </c>
+      <c r="R38" t="n">
+        <v>83055.50999999999</v>
+      </c>
+      <c r="S38" t="n">
+        <v>82967.17999999999</v>
+      </c>
+      <c r="T38" t="n">
+        <v>83052.78999999999</v>
+      </c>
+      <c r="U38" t="n">
+        <v>202993.95</v>
+      </c>
+      <c r="V38" t="n">
+        <v>203017.13</v>
+      </c>
+      <c r="W38" t="n">
+        <v>203079.66</v>
+      </c>
+      <c r="X38" t="n">
+        <v>203075.78</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>203056.64</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>203042.58</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>203068.35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>384522.5</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+        <v>134041.17</v>
+      </c>
+      <c r="C39" t="n">
+        <v>144103.25</v>
+      </c>
       <c r="D39" t="n">
-        <v>384460.62</v>
+        <v>144213.5</v>
       </c>
       <c r="E39" t="n">
-        <v>384494.36</v>
+        <v>118496.02</v>
       </c>
       <c r="F39" t="n">
-        <v>426540.86</v>
+        <v>118502.53</v>
       </c>
       <c r="G39" t="n">
-        <v>446627.76</v>
+        <v>107218.08</v>
       </c>
       <c r="H39" t="n">
-        <v>446522.84</v>
+        <v>101630.83</v>
       </c>
       <c r="I39" t="n">
-        <v>446639.54</v>
+        <v>101636.07</v>
       </c>
       <c r="J39" t="n">
-        <v>446431.73</v>
+        <v>101640.94</v>
       </c>
       <c r="K39" t="n">
-        <v>446593.69</v>
+        <v>101584.74</v>
       </c>
       <c r="L39" t="n">
-        <v>446638.73</v>
+        <v>101624.3</v>
       </c>
       <c r="M39" t="n">
-        <v>446578.71</v>
+        <v>112595.27</v>
+      </c>
+      <c r="N39" t="n">
+        <v>127527.17</v>
+      </c>
+      <c r="O39" t="n">
+        <v>127517.32</v>
+      </c>
+      <c r="P39" t="n">
+        <v>127527.61</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>127515.47</v>
+      </c>
+      <c r="R39" t="n">
+        <v>127456.76</v>
+      </c>
+      <c r="S39" t="n">
+        <v>127474.34</v>
+      </c>
+      <c r="T39" t="n">
+        <v>127544.29</v>
+      </c>
+      <c r="U39" t="n">
+        <v>127497.83</v>
+      </c>
+      <c r="V39" t="n">
+        <v>127498.62</v>
+      </c>
+      <c r="W39" t="n">
+        <v>123450.35</v>
+      </c>
+      <c r="X39" t="n">
+        <v>123449.54</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>123498.61</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>132263.3</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>132311.06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>712301.29</v>
+        <v>446578.71</v>
       </c>
       <c r="C40" t="n">
-        <v>712129.48</v>
+        <v>446587.59</v>
       </c>
       <c r="D40" t="n">
-        <v>816461.65</v>
+        <v>446955.11</v>
       </c>
       <c r="E40" t="n">
-        <v>816347.83</v>
+        <v>446415.3</v>
       </c>
       <c r="F40" t="n">
-        <v>816598.02</v>
+        <v>446518.03</v>
       </c>
       <c r="G40" t="n">
-        <v>816697.1800000001</v>
+        <v>446628.79</v>
       </c>
       <c r="H40" t="n">
-        <v>816740.9300000001</v>
+        <v>446597.72</v>
       </c>
       <c r="I40" t="n">
-        <v>816500.75</v>
+        <v>542594.0699999999</v>
       </c>
       <c r="J40" t="n">
-        <v>816807.38</v>
+        <v>542641.23</v>
       </c>
       <c r="K40" t="n">
-        <v>816515.47</v>
+        <v>542357.8</v>
       </c>
       <c r="L40" t="n">
-        <v>603773.78</v>
+        <v>542584.13</v>
       </c>
       <c r="M40" t="n">
-        <v>604056.54</v>
+        <v>542446.22</v>
+      </c>
+      <c r="N40" t="n">
+        <v>569635.35</v>
+      </c>
+      <c r="O40" t="n">
+        <v>569565.21</v>
+      </c>
+      <c r="P40" t="n">
+        <v>597301.5699999999</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>597462.09</v>
+      </c>
+      <c r="R40" t="n">
+        <v>625279.73</v>
+      </c>
+      <c r="S40" t="n">
+        <v>641349.38</v>
+      </c>
+      <c r="T40" t="n">
+        <v>641162.7</v>
+      </c>
+      <c r="U40" t="n">
+        <v>641223.39</v>
+      </c>
+      <c r="V40" t="n">
+        <v>677800.9300000001</v>
+      </c>
+      <c r="W40" t="n">
+        <v>694335.66</v>
+      </c>
+      <c r="X40" t="n">
+        <v>694523.08</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>694178.52</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>675473.42</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>675472.29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219146.69</v>
+        <v>604056.54</v>
       </c>
       <c r="C41" t="n">
-        <v>229081.57</v>
+        <v>603922.6</v>
       </c>
       <c r="D41" t="n">
-        <v>236210.67</v>
+        <v>604594.33</v>
       </c>
       <c r="E41" t="n">
-        <v>252057.44</v>
+        <v>701887.33</v>
       </c>
       <c r="F41" t="n">
-        <v>252232.85</v>
+        <v>797328.58</v>
       </c>
       <c r="G41" t="n">
-        <v>252231.38</v>
+        <v>797474.47</v>
       </c>
       <c r="H41" t="n">
-        <v>287088.44</v>
+        <v>797759.59</v>
       </c>
       <c r="I41" t="n">
-        <v>287224.93</v>
+        <v>797822.23</v>
       </c>
       <c r="J41" t="n">
-        <v>302102.37</v>
+        <v>797611.1899999999</v>
       </c>
       <c r="K41" t="n">
-        <v>282211.52</v>
+        <v>797787.71</v>
       </c>
       <c r="L41" t="n">
-        <v>297062.77</v>
+        <v>965050.01</v>
       </c>
       <c r="M41" t="n">
-        <v>297167.08</v>
+        <v>964501.3199999999</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1097213.34</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1208123.21</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1320120.17</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1320514.02</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1320526.41</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1320545.89</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1215027.93</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1240107.67</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1376673.1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1496043.33</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1599885.61</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1431098.84</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1430997.43</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1300973.01</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>499412.72</v>
+        <v>297167.08</v>
       </c>
       <c r="C42" t="n">
-        <v>499169.51</v>
+        <v>297072.31</v>
       </c>
       <c r="D42" t="n">
-        <v>499215.85</v>
+        <v>297451.81</v>
       </c>
       <c r="E42" t="n">
-        <v>499379.09</v>
+        <v>297179.38</v>
       </c>
       <c r="F42" t="n">
-        <v>525272.1800000001</v>
+        <v>297029.11</v>
       </c>
       <c r="G42" t="n">
-        <v>525351.38</v>
+        <v>321072.72</v>
       </c>
       <c r="H42" t="n">
-        <v>525363.1</v>
+        <v>321191.99</v>
       </c>
       <c r="I42" t="n">
-        <v>525374.83</v>
+        <v>321079.29</v>
       </c>
       <c r="J42" t="n">
-        <v>525375.75</v>
+        <v>328237.33</v>
       </c>
       <c r="K42" t="n">
-        <v>525317.65</v>
+        <v>328097.77</v>
       </c>
       <c r="L42" t="n">
-        <v>525154.14</v>
+        <v>343144.81</v>
       </c>
       <c r="M42" t="n">
-        <v>525449.0699999999</v>
+        <v>349184.61</v>
+      </c>
+      <c r="N42" t="n">
+        <v>389113.13</v>
+      </c>
+      <c r="O42" t="n">
+        <v>416183.9</v>
+      </c>
+      <c r="P42" t="n">
+        <v>368112.5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>440034.17</v>
+      </c>
+      <c r="R42" t="n">
+        <v>452169.79</v>
+      </c>
+      <c r="S42" t="n">
+        <v>452228.86</v>
+      </c>
+      <c r="T42" t="n">
+        <v>435518.21</v>
+      </c>
+      <c r="U42" t="n">
+        <v>467019.88</v>
+      </c>
+      <c r="V42" t="n">
+        <v>467199.2</v>
+      </c>
+      <c r="W42" t="n">
+        <v>467179.99</v>
+      </c>
+      <c r="X42" t="n">
+        <v>477085.64</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>461696.58</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>368715.79</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>353509.34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>351385.62</v>
+        <v>525449.0699999999</v>
       </c>
       <c r="C43" t="n">
-        <v>351397.41</v>
+        <v>559853.53</v>
       </c>
       <c r="D43" t="n">
-        <v>330323.92</v>
+        <v>560062.79</v>
       </c>
       <c r="E43" t="n">
-        <v>324345.76</v>
+        <v>421129.08</v>
       </c>
       <c r="F43" t="n">
-        <v>350464.02</v>
+        <v>420974.51</v>
       </c>
       <c r="G43" t="n">
-        <v>354567.47</v>
+        <v>381681.54</v>
       </c>
       <c r="H43" t="n">
-        <v>355565.18</v>
+        <v>381398.96</v>
       </c>
       <c r="I43" t="n">
-        <v>355539.26</v>
+        <v>381773.61</v>
       </c>
       <c r="J43" t="n">
-        <v>355559.99</v>
+        <v>381402.57</v>
       </c>
       <c r="K43" t="n">
-        <v>355528.1</v>
+        <v>381538.32</v>
       </c>
       <c r="L43" t="n">
-        <v>355488.61</v>
+        <v>381753.96</v>
       </c>
       <c r="M43" t="n">
-        <v>345258.77</v>
+        <v>423703.16</v>
+      </c>
+      <c r="N43" t="n">
+        <v>480688.64</v>
+      </c>
+      <c r="O43" t="n">
+        <v>419048.55</v>
+      </c>
+      <c r="P43" t="n">
+        <v>386371</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>386452.81</v>
+      </c>
+      <c r="R43" t="n">
+        <v>386388.63</v>
+      </c>
+      <c r="S43" t="n">
+        <v>395011.11</v>
+      </c>
+      <c r="T43" t="n">
+        <v>395077.97</v>
+      </c>
+      <c r="U43" t="n">
+        <v>394998.98</v>
+      </c>
+      <c r="V43" t="n">
+        <v>394874.17</v>
+      </c>
+      <c r="W43" t="n">
+        <v>319104.4</v>
+      </c>
+      <c r="X43" t="n">
+        <v>319238.24</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>319267.91</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>366657.94</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>366432.82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>575200.85</v>
+        <v>345258.77</v>
       </c>
       <c r="C44" t="n">
-        <v>648261.55</v>
+        <v>326517.57</v>
       </c>
       <c r="D44" t="n">
-        <v>822965.5699999999</v>
+        <v>326532.95</v>
       </c>
       <c r="E44" t="n">
-        <v>822798.49</v>
+        <v>330194.85</v>
       </c>
       <c r="F44" t="n">
-        <v>823684.6</v>
+        <v>326003.83</v>
       </c>
       <c r="G44" t="n">
-        <v>823041.63</v>
+        <v>355634.78</v>
       </c>
       <c r="H44" t="n">
-        <v>683745.47</v>
+        <v>355560.72</v>
       </c>
       <c r="I44" t="n">
-        <v>684248.33</v>
+        <v>355725.14</v>
       </c>
       <c r="J44" t="n">
-        <v>683645.74</v>
+        <v>355464.31</v>
       </c>
       <c r="K44" t="n">
-        <v>683468.89</v>
+        <v>355520.48</v>
       </c>
       <c r="L44" t="n">
-        <v>617297.29</v>
+        <v>352064.44</v>
       </c>
       <c r="M44" t="n">
-        <v>617474.86</v>
+        <v>320639.02</v>
+      </c>
+      <c r="N44" t="n">
+        <v>315866.83</v>
+      </c>
+      <c r="O44" t="n">
+        <v>318424.08</v>
+      </c>
+      <c r="P44" t="n">
+        <v>342289.54</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>346504.01</v>
+      </c>
+      <c r="R44" t="n">
+        <v>395223.61</v>
+      </c>
+      <c r="S44" t="n">
+        <v>461786.18</v>
+      </c>
+      <c r="T44" t="n">
+        <v>379578.36</v>
+      </c>
+      <c r="U44" t="n">
+        <v>379401.47</v>
+      </c>
+      <c r="V44" t="n">
+        <v>374147.08</v>
+      </c>
+      <c r="W44" t="n">
+        <v>374034.18</v>
+      </c>
+      <c r="X44" t="n">
+        <v>418357.61</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>405948.58</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>405739.89</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>405958.28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1203933.93</v>
+        <v>617474.86</v>
       </c>
       <c r="C45" t="n">
-        <v>1204311.98</v>
+        <v>617590.35</v>
       </c>
       <c r="D45" t="n">
-        <v>1144753.12</v>
+        <v>617543.66</v>
       </c>
       <c r="E45" t="n">
-        <v>969327.3199999999</v>
+        <v>617255.66</v>
       </c>
       <c r="F45" t="n">
-        <v>970523.6</v>
+        <v>630985.04</v>
       </c>
       <c r="G45" t="n">
-        <v>973379</v>
+        <v>630872.1800000001</v>
       </c>
       <c r="H45" t="n">
-        <v>969280.55</v>
+        <v>630953.38</v>
       </c>
       <c r="I45" t="n">
-        <v>972270.09</v>
+        <v>630926.7</v>
       </c>
       <c r="J45" t="n">
-        <v>969270.48</v>
+        <v>686989.4399999999</v>
       </c>
       <c r="K45" t="n">
-        <v>969781.17</v>
+        <v>723151.89</v>
       </c>
       <c r="L45" t="n">
-        <v>970484.38</v>
+        <v>722891.24</v>
       </c>
       <c r="M45" t="n">
-        <v>964084.92</v>
+        <v>771777.23</v>
+      </c>
+      <c r="N45" t="n">
+        <v>772031.78</v>
+      </c>
+      <c r="O45" t="n">
+        <v>828074.96</v>
+      </c>
+      <c r="P45" t="n">
+        <v>497414.31</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>574919.8199999999</v>
+      </c>
+      <c r="R45" t="n">
+        <v>639656.33</v>
+      </c>
+      <c r="S45" t="n">
+        <v>639886.49</v>
+      </c>
+      <c r="T45" t="n">
+        <v>639351.41</v>
+      </c>
+      <c r="U45" t="n">
+        <v>603819.0600000001</v>
+      </c>
+      <c r="V45" t="n">
+        <v>552448.12</v>
+      </c>
+      <c r="W45" t="n">
+        <v>552428.41</v>
+      </c>
+      <c r="X45" t="n">
+        <v>552677.08</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>535506.52</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>550599.72</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>527087.91</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5196347.47</v>
+        <v>964084.92</v>
       </c>
       <c r="C46" t="n">
-        <v>6129297.29</v>
+        <v>1074165.22</v>
       </c>
       <c r="D46" t="n">
-        <v>5769449.99</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+        <v>1076171.32</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1115806.42</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1056496.92</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1055886.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1056506.72</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1056543.16</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1056689.71</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1056870.46</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1056715.12</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1056549.7</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1056022.61</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1056217.1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1033431.7</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>976640.33</v>
+      </c>
+      <c r="R46" t="n">
+        <v>981502.33</v>
+      </c>
+      <c r="S46" t="n">
+        <v>944413.1899999999</v>
+      </c>
+      <c r="T46" t="n">
+        <v>944974.3100000001</v>
+      </c>
+      <c r="U46" t="n">
+        <v>947430.22</v>
+      </c>
+      <c r="V46" t="n">
+        <v>898285.49</v>
+      </c>
+      <c r="W46" t="n">
+        <v>897766.0699999999</v>
+      </c>
+      <c r="X46" t="n">
+        <v>898000.8</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>897867.9399999999</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>897681.45</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>898053.73</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2397,109 +4341,211 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2059650.51</v>
+        <v>2084354.19</v>
       </c>
       <c r="C47" t="n">
-        <v>2060160.46</v>
+        <v>2061801.95</v>
       </c>
       <c r="D47" t="n">
-        <v>2058718.35</v>
+        <v>2063719.35</v>
       </c>
       <c r="E47" t="n">
-        <v>2060247.51</v>
+        <v>2265310</v>
       </c>
       <c r="F47" t="n">
-        <v>2182359.9</v>
+        <v>2266309.11</v>
       </c>
       <c r="G47" t="n">
-        <v>2290050.56</v>
+        <v>2265240.54</v>
       </c>
       <c r="H47" t="n">
-        <v>2290561.01</v>
+        <v>2264792.92</v>
       </c>
       <c r="I47" t="n">
-        <v>2085037.06</v>
+        <v>2264460.17</v>
       </c>
       <c r="J47" t="n">
-        <v>2084835.58</v>
+        <v>2266420.1</v>
       </c>
       <c r="K47" t="n">
-        <v>2083607.58</v>
+        <v>2266491.46</v>
       </c>
       <c r="L47" t="n">
-        <v>2084163.36</v>
+        <v>2264666.91</v>
       </c>
       <c r="M47" t="n">
-        <v>2084354.19</v>
+        <v>2489081.74</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2489985.62</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2488697.7</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2490226.53</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2885711.68</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2992804.89</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2991412.65</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3154844.67</v>
+      </c>
+      <c r="U47" t="n">
+        <v>3152924.7</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3153951.47</v>
+      </c>
+      <c r="W47" t="n">
+        <v>3154254.89</v>
+      </c>
+      <c r="X47" t="n">
+        <v>3289603.17</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>3288972.7</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>3460564.9</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>3366797.61</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>142614.86</v>
-      </c>
-      <c r="C48" t="n">
-        <v>175036.86</v>
-      </c>
-      <c r="D48" t="n">
-        <v>175109.64</v>
-      </c>
-      <c r="E48" t="n">
-        <v>175032.99</v>
-      </c>
-      <c r="F48" t="n">
-        <v>175054.35</v>
-      </c>
-      <c r="G48" t="n">
-        <v>175085.68</v>
-      </c>
-      <c r="H48" t="n">
-        <v>175063.77</v>
-      </c>
-      <c r="I48" t="n">
-        <v>175113.35</v>
-      </c>
-      <c r="J48" t="n">
-        <v>175058.82</v>
-      </c>
-      <c r="K48" t="n">
-        <v>175153.57</v>
-      </c>
-      <c r="L48" t="n">
-        <v>175043.09</v>
-      </c>
-      <c r="M48" t="n">
-        <v>175119.68</v>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="n">
+        <v>102724.67</v>
+      </c>
+      <c r="X48" t="n">
+        <v>103845.02</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>103142.07</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>103294.99</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>103688.36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>80403.62</v>
+        <v>175119.68</v>
       </c>
       <c r="C49" t="n">
-        <v>80466.45</v>
+        <v>175089.63</v>
       </c>
       <c r="D49" t="n">
-        <v>95943.16</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+        <v>175283.75</v>
+      </c>
+      <c r="E49" t="n">
+        <v>175119.24</v>
+      </c>
+      <c r="F49" t="n">
+        <v>175135.51</v>
+      </c>
+      <c r="G49" t="n">
+        <v>175166.49</v>
+      </c>
+      <c r="H49" t="n">
+        <v>175088.05</v>
+      </c>
+      <c r="I49" t="n">
+        <v>175121.89</v>
+      </c>
+      <c r="J49" t="n">
+        <v>184288.07</v>
+      </c>
+      <c r="K49" t="n">
+        <v>184292.64</v>
+      </c>
+      <c r="L49" t="n">
+        <v>184228.56</v>
+      </c>
+      <c r="M49" t="n">
+        <v>184227.81</v>
+      </c>
+      <c r="N49" t="n">
+        <v>184286.65</v>
+      </c>
+      <c r="O49" t="n">
+        <v>195361.32</v>
+      </c>
+      <c r="P49" t="n">
+        <v>195241.31</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>201372.41</v>
+      </c>
+      <c r="R49" t="n">
+        <v>201246.06</v>
+      </c>
+      <c r="S49" t="n">
+        <v>201384.69</v>
+      </c>
+      <c r="T49" t="n">
+        <v>201395.39</v>
+      </c>
+      <c r="U49" t="n">
+        <v>167614.88</v>
+      </c>
+      <c r="V49" t="n">
+        <v>167608.57</v>
+      </c>
+      <c r="W49" t="n">
+        <v>167673.04</v>
+      </c>
+      <c r="X49" t="n">
+        <v>162422.98</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>148961.32</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>149019.3</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>142480.81</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2508,40 +4554,82 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>586600.46</v>
+        <v>533349.95</v>
       </c>
       <c r="C50" t="n">
-        <v>636311.67</v>
+        <v>534803.75</v>
       </c>
       <c r="D50" t="n">
-        <v>635288.74</v>
+        <v>534292.67</v>
       </c>
       <c r="E50" t="n">
-        <v>540291.47</v>
+        <v>542952.49</v>
       </c>
       <c r="F50" t="n">
-        <v>552545.9</v>
+        <v>547314.11</v>
       </c>
       <c r="G50" t="n">
-        <v>553412.22</v>
+        <v>553275.33</v>
       </c>
       <c r="H50" t="n">
-        <v>549104.29</v>
+        <v>553626.76</v>
       </c>
       <c r="I50" t="n">
-        <v>542300.1800000001</v>
+        <v>562879.97</v>
       </c>
       <c r="J50" t="n">
-        <v>549037.89</v>
+        <v>573711.72</v>
       </c>
       <c r="K50" t="n">
-        <v>548328.05</v>
+        <v>576826.41</v>
       </c>
       <c r="L50" t="n">
-        <v>535996.22</v>
+        <v>585527.26</v>
       </c>
       <c r="M50" t="n">
-        <v>533349.95</v>
+        <v>607267.87</v>
+      </c>
+      <c r="N50" t="n">
+        <v>617515.67</v>
+      </c>
+      <c r="O50" t="n">
+        <v>622230.54</v>
+      </c>
+      <c r="P50" t="n">
+        <v>623273.38</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>646438.88</v>
+      </c>
+      <c r="R50" t="n">
+        <v>654298.83</v>
+      </c>
+      <c r="S50" t="n">
+        <v>670050.1</v>
+      </c>
+      <c r="T50" t="n">
+        <v>664834.13</v>
+      </c>
+      <c r="U50" t="n">
+        <v>662246.99</v>
+      </c>
+      <c r="V50" t="n">
+        <v>663389.65</v>
+      </c>
+      <c r="W50" t="n">
+        <v>666633.63</v>
+      </c>
+      <c r="X50" t="n">
+        <v>694073.9399999999</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>671149.4399999999</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>662511.02</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>638148.4</v>
       </c>
     </row>
     <row r="51">
@@ -2551,40 +4639,82 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>28156822.17</v>
+        <v>24534097.73</v>
       </c>
       <c r="C51" t="n">
-        <v>23543531.89</v>
+        <v>24600972.63</v>
       </c>
       <c r="D51" t="n">
-        <v>30493859.57</v>
+        <v>24577462.7</v>
       </c>
       <c r="E51" t="n">
-        <v>24853407.63</v>
+        <v>24975814.71</v>
       </c>
       <c r="F51" t="n">
-        <v>25417111.56</v>
+        <v>25176448.84</v>
       </c>
       <c r="G51" t="n">
-        <v>25456962.22</v>
+        <v>25450665.29</v>
       </c>
       <c r="H51" t="n">
-        <v>25258797.14</v>
+        <v>25466830.73</v>
       </c>
       <c r="I51" t="n">
-        <v>24945808.38</v>
+        <v>25892478.4</v>
       </c>
       <c r="J51" t="n">
-        <v>25255743.11</v>
+        <v>26390739.29</v>
       </c>
       <c r="K51" t="n">
-        <v>25223090.45</v>
+        <v>26534014.94</v>
       </c>
       <c r="L51" t="n">
-        <v>24655826.18</v>
+        <v>26934253.98</v>
       </c>
       <c r="M51" t="n">
-        <v>24534097.73</v>
+        <v>27934322.2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>28405720.83</v>
+      </c>
+      <c r="O51" t="n">
+        <v>28622605.01</v>
+      </c>
+      <c r="P51" t="n">
+        <v>28670575.51</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>29736188.35</v>
+      </c>
+      <c r="R51" t="n">
+        <v>30752045.11</v>
+      </c>
+      <c r="S51" t="n">
+        <v>31492354.87</v>
+      </c>
+      <c r="T51" t="n">
+        <v>30582369.88</v>
+      </c>
+      <c r="U51" t="n">
+        <v>30463361.53</v>
+      </c>
+      <c r="V51" t="n">
+        <v>30515923.92</v>
+      </c>
+      <c r="W51" t="n">
+        <v>31331780.5</v>
+      </c>
+      <c r="X51" t="n">
+        <v>31927401.34</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>30872874.06</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>30475506.69</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>29354826.43</v>
       </c>
     </row>
   </sheetData>
